--- a/tests/APDataTest_Topline.xlsx
+++ b/tests/APDataTest_Topline.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet name="Content" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Table 1 - Pct" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Table Sig - Pct" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Table 1 - Count" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Table Sig - Pct" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -47,20 +48,20 @@
     </font>
     <font>
       <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <b val="1"/>
       <color rgb="00000000"/>
       <sz val="12"/>
     </font>
     <font>
       <b val="1"/>
-      <color rgb="00FFFFFF"/>
-    </font>
-    <font>
-      <b val="1"/>
       <color rgb="00FF0000"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <u val="single"/>
     </font>
   </fonts>
   <fills count="9">
@@ -82,11 +83,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="008EA9DB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00538DD5"/>
       </patternFill>
     </fill>
@@ -98,6 +94,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00DAEEF3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008EA9DB"/>
       </patternFill>
     </fill>
     <fill>
@@ -191,6 +192,24 @@
       <bottom style="dotted"/>
     </border>
     <border>
+      <left style="dotted"/>
+      <right style="thin"/>
+      <top style="dotted"/>
+      <bottom style="dotted"/>
+    </border>
+    <border>
+      <left style="dotted"/>
+      <right style="dotted"/>
+      <top style="dotted"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="dotted"/>
+      <right style="thin"/>
+      <top style="dotted"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
       <left style="medium"/>
       <right style="dotted"/>
       <top style="dotted"/>
@@ -203,26 +222,8 @@
       <bottom style="thin"/>
     </border>
     <border>
-      <left style="dotted"/>
-      <right style="thin"/>
-      <top style="dotted"/>
-      <bottom style="dotted"/>
-    </border>
-    <border>
-      <left style="dotted"/>
-      <right style="dotted"/>
-      <top style="dotted"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
       <left style="medium"/>
       <right style="dotted"/>
-      <top style="dotted"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="dotted"/>
-      <right style="thin"/>
       <top style="dotted"/>
       <bottom style="thin"/>
     </border>
@@ -230,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -239,61 +240,68 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,7 +667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,6 +706,16 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
+          <t>Table 1 - Count</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
           <t>Table Sig - Pct</t>
         </is>
       </c>
@@ -706,6 +724,7 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -717,10 +736,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
@@ -733,22 +752,6 @@
     <col hidden="1" width="13" customWidth="1" min="3" max="3"/>
     <col hidden="1" width="13" customWidth="1" min="4" max="4"/>
     <col width="40" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="7" customWidth="1" min="18" max="18"/>
-    <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -784,77 +787,37 @@
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>Age &gt; 0@Age@TOTAL@sig@A</t>
+          <t>Age == 2@Age@18 - 24@val@B</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>Age == 2@Age@18 - 24@val@B</t>
+          <t>Age == 3@Age@25 - 30@val@C</t>
         </is>
       </c>
       <c r="I1" s="2" t="inlineStr">
         <is>
-          <t>Age == 2@Age@18 - 24@sig@B</t>
+          <t>Age == 4@Age@31 - 39@val@D</t>
         </is>
       </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
-          <t>Age == 3@Age@25 - 30@val@C</t>
+          <t>Age == 5@Age@40 - 50@val@E</t>
         </is>
       </c>
       <c r="K1" s="2" t="inlineStr">
         <is>
-          <t>Age == 3@Age@25 - 30@sig@C</t>
+          <t>Age == 6@Age@Trên 50@val@F</t>
         </is>
       </c>
       <c r="L1" s="2" t="inlineStr">
         <is>
-          <t>Age == 4@Age@31 - 39@val@D</t>
+          <t>City.isin([1, 5, 10, 11, 12])@Location@All South@val@A</t>
         </is>
       </c>
       <c r="M1" s="2" t="inlineStr">
         <is>
-          <t>Age == 4@Age@31 - 39@sig@D</t>
-        </is>
-      </c>
-      <c r="N1" s="2" t="inlineStr">
-        <is>
-          <t>Age == 5@Age@40 - 50@val@E</t>
-        </is>
-      </c>
-      <c r="O1" s="2" t="inlineStr">
-        <is>
-          <t>Age == 5@Age@40 - 50@sig@E</t>
-        </is>
-      </c>
-      <c r="P1" s="2" t="inlineStr">
-        <is>
-          <t>Age == 6@Age@Trên 50@val@F</t>
-        </is>
-      </c>
-      <c r="Q1" s="2" t="inlineStr">
-        <is>
-          <t>Age == 6@Age@Trên 50@sig@F</t>
-        </is>
-      </c>
-      <c r="R1" s="2" t="inlineStr">
-        <is>
-          <t>City.isin([1, 5, 10, 11, 12])@Location@All South@val@A</t>
-        </is>
-      </c>
-      <c r="S1" s="2" t="inlineStr">
-        <is>
-          <t>City.isin([1, 5, 10, 11, 12])@Location@All South@sig@A</t>
-        </is>
-      </c>
-      <c r="T1" s="2" t="inlineStr">
-        <is>
           <t>City.isin([2, 4, 16, 17, 18])@Location@All North@val@B</t>
-        </is>
-      </c>
-      <c r="U1" s="2" t="inlineStr">
-        <is>
-          <t>City.isin([2, 4, 16, 17, 18])@Location@All North@sig@B</t>
         </is>
       </c>
     </row>
@@ -866,75 +829,35 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Age &gt; 0</t>
+          <t>Age == 2</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Age == 2</t>
+          <t>Age == 3</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Age == 2</t>
+          <t>Age == 4</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Age == 3</t>
+          <t>Age == 5</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Age == 3</t>
+          <t>Age == 6</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Age == 4</t>
+          <t>City.isin([1, 5, 10, 11, 12])</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
-        <is>
-          <t>Age == 4</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Age == 5</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Age == 5</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Age == 6</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Age == 6</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>City.isin([1, 5, 10, 11, 12])</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>City.isin([1, 5, 10, 11, 12])</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>City.isin([2, 4, 16, 17, 18])</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
         <is>
           <t>City.isin([2, 4, 16, 17, 18])</t>
         </is>
@@ -960,143 +883,110 @@
       <c r="H3" s="5" t="n"/>
       <c r="I3" s="5" t="n"/>
       <c r="J3" s="5" t="n"/>
-      <c r="K3" s="5" t="n"/>
-      <c r="L3" s="5" t="n"/>
-      <c r="M3" s="5" t="n"/>
-      <c r="N3" s="5" t="n"/>
-      <c r="O3" s="5" t="n"/>
-      <c r="P3" s="5" t="n"/>
-      <c r="Q3" s="6" t="n"/>
-      <c r="R3" s="4" t="inlineStr">
+      <c r="K3" s="6" t="n"/>
+      <c r="L3" s="4" t="inlineStr">
         <is>
           <t>Location</t>
         </is>
       </c>
-      <c r="S3" s="5" t="n"/>
-      <c r="T3" s="5" t="n"/>
-      <c r="U3" s="6" t="n"/>
+      <c r="M3" s="6" t="n"/>
     </row>
     <row r="4" ht="30" customHeight="1">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Independent Pair T-test at level 90% &amp; 95%</t>
-        </is>
-      </c>
       <c r="F4" s="7" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="G4" s="6" t="n"/>
-      <c r="H4" s="8" t="inlineStr">
+      <c r="G4" s="7" t="inlineStr">
         <is>
           <t>18 - 24</t>
         </is>
       </c>
-      <c r="I4" s="6" t="n"/>
-      <c r="J4" s="8" t="inlineStr">
+      <c r="H4" s="7" t="inlineStr">
         <is>
           <t>25 - 30</t>
         </is>
       </c>
-      <c r="K4" s="6" t="n"/>
-      <c r="L4" s="8" t="inlineStr">
+      <c r="I4" s="7" t="inlineStr">
         <is>
           <t>31 - 39</t>
         </is>
       </c>
-      <c r="M4" s="6" t="n"/>
-      <c r="N4" s="8" t="inlineStr">
+      <c r="J4" s="7" t="inlineStr">
         <is>
           <t>40 - 50</t>
         </is>
       </c>
-      <c r="O4" s="6" t="n"/>
-      <c r="P4" s="8" t="inlineStr">
+      <c r="K4" s="7" t="inlineStr">
         <is>
           <t>Trên 50</t>
         </is>
       </c>
-      <c r="Q4" s="6" t="n"/>
-      <c r="R4" s="7" t="inlineStr">
+      <c r="L4" s="7" t="inlineStr">
         <is>
           <t>All South</t>
         </is>
       </c>
-      <c r="S4" s="6" t="n"/>
-      <c r="T4" s="8" t="inlineStr">
+      <c r="M4" s="7" t="inlineStr">
         <is>
           <t>All North</t>
         </is>
       </c>
-      <c r="U4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Uppercase for 95%, lowercase for 90%</t>
-        </is>
-      </c>
-      <c r="F5" s="9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G5" s="6" t="n"/>
-      <c r="H5" s="10" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="I5" s="6" t="n"/>
-      <c r="J5" s="10" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="K5" s="6" t="n"/>
-      <c r="L5" s="10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="M5" s="6" t="n"/>
-      <c r="N5" s="10" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="O5" s="6" t="n"/>
-      <c r="P5" s="10" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="Q5" s="6" t="n"/>
-      <c r="R5" s="9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="S5" s="6" t="n"/>
-      <c r="T5" s="10" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="U5" s="6" t="n"/>
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="B5" s="9" t="inlineStr">
+        <is>
+          <t>Please indicate any dental problems that the rest of your family members (&gt; 12 years old) have had in the past 6 months</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E5" s="10" t="inlineStr">
+        <is>
+          <t>Base</t>
+        </is>
+      </c>
+      <c r="F5" s="10" t="n">
+        <v>309</v>
+      </c>
+      <c r="G5" s="10" t="n">
+        <v>28</v>
+      </c>
+      <c r="H5" s="10" t="n">
+        <v>94</v>
+      </c>
+      <c r="I5" s="10" t="n">
+        <v>125</v>
+      </c>
+      <c r="J5" s="10" t="n">
+        <v>58</v>
+      </c>
+      <c r="K5" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" s="10" t="n">
+        <v>64</v>
+      </c>
+      <c r="M5" s="11" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="inlineStr">
-        <is>
-          <t>Q15</t>
-        </is>
-      </c>
-      <c r="B6" s="12" t="inlineStr">
-        <is>
-          <t>Please indicate any dental problems that the rest of your family members (&gt; 12 years old) have had in the past 6 months</t>
-        </is>
-      </c>
+      <c r="A6" s="12" t="n"/>
+      <c r="B6" s="12" t="n"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>MA</t>
@@ -1104,172 +994,959 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>900001</t>
+        </is>
+      </c>
+      <c r="E6" s="13" t="inlineStr">
+        <is>
+          <t>Group 1 + 2</t>
+        </is>
+      </c>
+      <c r="F6" s="14" t="n">
+        <v>0.7152103559870551</v>
+      </c>
+      <c r="G6" s="14" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="H6" s="14" t="n">
+        <v>0.7553191489361702</v>
+      </c>
+      <c r="I6" s="14" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="J6" s="14" t="n">
+        <v>0.7413793103448276</v>
+      </c>
+      <c r="K6" s="15" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L6" s="14" t="n">
+        <v>0.484375</v>
+      </c>
+      <c r="M6" s="15" t="n">
+        <v>0.6376811594202898</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="12" t="n"/>
+      <c r="B7" s="12" t="n"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>900002</t>
+        </is>
+      </c>
+      <c r="E7" s="13" t="inlineStr">
+        <is>
+          <t>Group 1</t>
+        </is>
+      </c>
+      <c r="F7" s="14" t="n">
+        <v>0.5954692556634305</v>
+      </c>
+      <c r="G7" s="14" t="n">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="H7" s="14" t="n">
+        <v>0.5851063829787234</v>
+      </c>
+      <c r="I7" s="14" t="n">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="J7" s="14" t="n">
+        <v>0.6379310344827587</v>
+      </c>
+      <c r="K7" s="15" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L7" s="14" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="M7" s="15" t="n">
+        <v>0.5362318840579711</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="12" t="n"/>
+      <c r="B8" s="12" t="n"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - Yellow/dull teeth</t>
+        </is>
+      </c>
+      <c r="F8" s="17" t="n">
+        <v>0.1974110032362459</v>
+      </c>
+      <c r="G8" s="17" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H8" s="17" t="n">
+        <v>0.1170212765957447</v>
+      </c>
+      <c r="I8" s="17" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="J8" s="17" t="n">
+        <v>0.2758620689655172</v>
+      </c>
+      <c r="K8" s="18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="17" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="M8" s="18" t="n">
+        <v>0.2173913043478261</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="12" t="n"/>
+      <c r="B9" s="12" t="n"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E9" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - Dental plaque</t>
+        </is>
+      </c>
+      <c r="F9" s="17" t="n">
+        <v>0.2944983818770227</v>
+      </c>
+      <c r="G9" s="17" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H9" s="17" t="n">
+        <v>0.2765957446808511</v>
+      </c>
+      <c r="I9" s="17" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="J9" s="17" t="n">
+        <v>0.3620689655172414</v>
+      </c>
+      <c r="K9" s="18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L9" s="17" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="M9" s="18" t="n">
+        <v>0.2753623188405797</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="12" t="n"/>
+      <c r="B10" s="12" t="n"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - Bad breath</t>
+        </is>
+      </c>
+      <c r="F10" s="17" t="n">
+        <v>0.1974110032362459</v>
+      </c>
+      <c r="G10" s="17" t="n">
+        <v>0.1785714285714286</v>
+      </c>
+      <c r="H10" s="17" t="n">
+        <v>0.1914893617021277</v>
+      </c>
+      <c r="I10" s="17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J10" s="17" t="n">
+        <v>0.2068965517241379</v>
+      </c>
+      <c r="K10" s="18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L10" s="17" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="M10" s="18" t="n">
+        <v>0.1014492753623188</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="12" t="n"/>
+      <c r="B11" s="12" t="n"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E11" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - Aphthousulcer</t>
+        </is>
+      </c>
+      <c r="F11" s="17" t="n">
+        <v>0.2880258899676376</v>
+      </c>
+      <c r="G11" s="17" t="n">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="H11" s="17" t="n">
+        <v>0.3404255319148936</v>
+      </c>
+      <c r="I11" s="17" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="J11" s="17" t="n">
+        <v>0.2241379310344828</v>
+      </c>
+      <c r="K11" s="18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L11" s="17" t="n">
+        <v>0.15625</v>
+      </c>
+      <c r="M11" s="18" t="n">
+        <v>0.2318840579710145</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="12" t="n"/>
+      <c r="B12" s="12" t="n"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="E12" s="13" t="inlineStr">
+        <is>
+          <t>Group 2</t>
+        </is>
+      </c>
+      <c r="F12" s="14" t="n">
+        <v>0.3106796116504854</v>
+      </c>
+      <c r="G12" s="14" t="n">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="H12" s="14" t="n">
+        <v>0.4042553191489361</v>
+      </c>
+      <c r="I12" s="14" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="J12" s="14" t="n">
+        <v>0.2758620689655172</v>
+      </c>
+      <c r="K12" s="15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L12" s="14" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="M12" s="15" t="n">
+        <v>0.2608695652173913</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="12" t="n"/>
+      <c r="B13" s="12" t="n"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - Sensitive teeth</t>
+        </is>
+      </c>
+      <c r="F13" s="17" t="n">
+        <v>0.145631067961165</v>
+      </c>
+      <c r="G13" s="17" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="H13" s="17" t="n">
+        <v>0.1808510638297872</v>
+      </c>
+      <c r="I13" s="17" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="J13" s="17" t="n">
+        <v>0.1724137931034483</v>
+      </c>
+      <c r="K13" s="18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L13" s="17" t="n">
+        <v>0.15625</v>
+      </c>
+      <c r="M13" s="18" t="n">
+        <v>0.1304347826086956</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="12" t="n"/>
+      <c r="B14" s="12" t="n"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E14" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - Caries</t>
+        </is>
+      </c>
+      <c r="F14" s="17" t="n">
+        <v>0.1650485436893204</v>
+      </c>
+      <c r="G14" s="17" t="n">
+        <v>0.1785714285714286</v>
+      </c>
+      <c r="H14" s="17" t="n">
+        <v>0.2553191489361702</v>
+      </c>
+      <c r="I14" s="17" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="J14" s="17" t="n">
+        <v>0.1551724137931035</v>
+      </c>
+      <c r="K14" s="18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L14" s="17" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="M14" s="18" t="n">
+        <v>0.1304347826086956</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="12" t="n"/>
+      <c r="B15" s="12" t="n"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E15" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - Gingivitis (bleeding, swollen gums)</t>
+        </is>
+      </c>
+      <c r="F15" s="17" t="n">
+        <v>0.08414239482200647</v>
+      </c>
+      <c r="G15" s="17" t="n">
+        <v>0.1785714285714286</v>
+      </c>
+      <c r="H15" s="17" t="n">
+        <v>0.07446808510638298</v>
+      </c>
+      <c r="I15" s="17" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="J15" s="17" t="n">
+        <v>0.05172413793103448</v>
+      </c>
+      <c r="K15" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="17" t="n">
+        <v>0.078125</v>
+      </c>
+      <c r="M15" s="18" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="12" t="n"/>
+      <c r="B16" s="12" t="n"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E16" s="16" t="inlineStr">
+        <is>
+          <t>Other (specify)</t>
+        </is>
+      </c>
+      <c r="F16" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="19" t="n"/>
+      <c r="B17" s="19" t="n"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E17" s="20" t="inlineStr">
+        <is>
+          <t>No problem</t>
+        </is>
+      </c>
+      <c r="F17" s="21" t="n">
+        <v>0.284789644012945</v>
+      </c>
+      <c r="G17" s="21" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="H17" s="21" t="n">
+        <v>0.2446808510638298</v>
+      </c>
+      <c r="I17" s="21" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="J17" s="21" t="n">
+        <v>0.2586206896551724</v>
+      </c>
+      <c r="K17" s="22" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L17" s="21" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="M17" s="22" t="n">
+        <v>0.3623188405797101</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>Perception</t>
+        </is>
+      </c>
+      <c r="B18" s="9" t="inlineStr">
+        <is>
+          <t>Please indicate how much you agree with the statement that P/S is making efforts to make it easier for people to access experts and dentists, in order to improve the oral health of Vietnamese people?</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>base</t>
         </is>
       </c>
-      <c r="E6" s="13" t="inlineStr">
+      <c r="E18" s="10" t="inlineStr">
         <is>
           <t>Base</t>
         </is>
       </c>
-      <c r="F6" s="14" t="n">
+      <c r="F18" s="10" t="n">
         <v>309</v>
       </c>
-      <c r="G6" s="15" t="n"/>
-      <c r="H6" s="13" t="n">
+      <c r="G18" s="10" t="n">
         <v>28</v>
       </c>
-      <c r="I6" s="15" t="n"/>
-      <c r="J6" s="13" t="n">
+      <c r="H18" s="10" t="n">
         <v>94</v>
       </c>
-      <c r="K6" s="15" t="n"/>
-      <c r="L6" s="13" t="n">
+      <c r="I18" s="10" t="n">
         <v>125</v>
       </c>
-      <c r="M6" s="15" t="n"/>
-      <c r="N6" s="13" t="n">
+      <c r="J18" s="10" t="n">
         <v>58</v>
       </c>
-      <c r="O6" s="15" t="n"/>
-      <c r="P6" s="13" t="n">
+      <c r="K18" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="15" t="n"/>
-      <c r="R6" s="14" t="n">
+      <c r="L18" s="10" t="n">
         <v>64</v>
       </c>
-      <c r="S6" s="15" t="n"/>
-      <c r="T6" s="13" t="n">
+      <c r="M18" s="11" t="n">
         <v>69</v>
       </c>
-      <c r="U6" s="15" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="16" t="n"/>
-      <c r="B7" s="16" t="n"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>MA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E7" s="17" t="inlineStr">
-        <is>
-          <t>Other (specify)</t>
-        </is>
-      </c>
-      <c r="F7" s="18" t="n">
-        <v>5.540453074433657</v>
-      </c>
-      <c r="G7" s="19" t="n"/>
-      <c r="H7" s="20" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="I7" s="19" t="n"/>
-      <c r="J7" s="20" t="n">
-        <v>6.117021276595745</v>
-      </c>
-      <c r="K7" s="19" t="n"/>
-      <c r="L7" s="20" t="n">
-        <v>4.968</v>
-      </c>
-      <c r="M7" s="19" t="n"/>
-      <c r="N7" s="20" t="n">
-        <v>5.241379310344827</v>
-      </c>
-      <c r="O7" s="19" t="n"/>
-      <c r="P7" s="20" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="Q7" s="19" t="n"/>
-      <c r="R7" s="18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="S7" s="19" t="n"/>
-      <c r="T7" s="20" t="n">
-        <v>4.217391304347826</v>
-      </c>
-      <c r="U7" s="19" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="21" t="n"/>
-      <c r="B8" s="21" t="n"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>MA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E8" s="22" t="inlineStr">
-        <is>
-          <t>No problem</t>
-        </is>
-      </c>
-      <c r="F8" s="23" t="n">
-        <v>5.825242718446602</v>
-      </c>
-      <c r="G8" s="24" t="n"/>
-      <c r="H8" s="25" t="n">
-        <v>6.964285714285714</v>
-      </c>
-      <c r="I8" s="24" t="n"/>
-      <c r="J8" s="25" t="n">
-        <v>6.361702127659575</v>
-      </c>
-      <c r="K8" s="24" t="n"/>
-      <c r="L8" s="25" t="n">
-        <v>5.312</v>
-      </c>
-      <c r="M8" s="24" t="n"/>
-      <c r="N8" s="25" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O8" s="24" t="n"/>
-      <c r="P8" s="25" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="24" t="n"/>
-      <c r="R8" s="23" t="n">
-        <v>3.765625</v>
-      </c>
-      <c r="S8" s="24" t="n"/>
-      <c r="T8" s="25" t="n">
-        <v>4.579710144927536</v>
-      </c>
-      <c r="U8" s="24" t="n"/>
-    </row>
-    <row r="9"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="12" t="n"/>
+      <c r="B19" s="12" t="n"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="16" t="inlineStr">
+        <is>
+          <t>Totally disagree</t>
+        </is>
+      </c>
+      <c r="F19" s="17" t="n">
+        <v>0.003236245954692557</v>
+      </c>
+      <c r="G19" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="17" t="n">
+        <v>0.01063829787234043</v>
+      </c>
+      <c r="I19" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="12" t="n"/>
+      <c r="B20" s="12" t="n"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E20" s="16" t="inlineStr">
+        <is>
+          <t>Disagree</t>
+        </is>
+      </c>
+      <c r="F20" s="17" t="n">
+        <v>0.009708737864077669</v>
+      </c>
+      <c r="G20" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="17" t="n">
+        <v>0.01063829787234043</v>
+      </c>
+      <c r="I20" s="17" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="J20" s="17" t="n">
+        <v>0.01724137931034483</v>
+      </c>
+      <c r="K20" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="17" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="M20" s="18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="12" t="n"/>
+      <c r="B21" s="12" t="n"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E21" s="16" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F21" s="17" t="n">
+        <v>0.1035598705501618</v>
+      </c>
+      <c r="G21" s="17" t="n">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="H21" s="17" t="n">
+        <v>0.1170212765957447</v>
+      </c>
+      <c r="I21" s="17" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J21" s="17" t="n">
+        <v>0.05172413793103448</v>
+      </c>
+      <c r="K21" s="18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L21" s="17" t="n">
+        <v>0.234375</v>
+      </c>
+      <c r="M21" s="18" t="n">
+        <v>0.07246376811594203</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="12" t="n"/>
+      <c r="B22" s="12" t="n"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E22" s="16" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="F22" s="17" t="n">
+        <v>0.5566343042071198</v>
+      </c>
+      <c r="G22" s="17" t="n">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="H22" s="17" t="n">
+        <v>0.5319148936170213</v>
+      </c>
+      <c r="I22" s="17" t="n">
+        <v>0.552</v>
+      </c>
+      <c r="J22" s="17" t="n">
+        <v>0.5862068965517241</v>
+      </c>
+      <c r="K22" s="18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L22" s="17" t="n">
+        <v>0.546875</v>
+      </c>
+      <c r="M22" s="18" t="n">
+        <v>0.5362318840579711</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="12" t="n"/>
+      <c r="B23" s="12" t="n"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E23" s="16" t="inlineStr">
+        <is>
+          <t>Totally agree</t>
+        </is>
+      </c>
+      <c r="F23" s="17" t="n">
+        <v>0.3268608414239482</v>
+      </c>
+      <c r="G23" s="17" t="n">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="H23" s="17" t="n">
+        <v>0.3297872340425532</v>
+      </c>
+      <c r="I23" s="17" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="J23" s="17" t="n">
+        <v>0.3448275862068966</v>
+      </c>
+      <c r="K23" s="18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L23" s="17" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="M23" s="18" t="n">
+        <v>0.391304347826087</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="12" t="n"/>
+      <c r="B24" s="12" t="n"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>900001</t>
+        </is>
+      </c>
+      <c r="E24" s="13" t="inlineStr">
+        <is>
+          <t>B2B</t>
+        </is>
+      </c>
+      <c r="F24" s="14" t="n">
+        <v>0.01294498381877023</v>
+      </c>
+      <c r="G24" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="14" t="n">
+        <v>0.02127659574468085</v>
+      </c>
+      <c r="I24" s="14" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="J24" s="14" t="n">
+        <v>0.01724137931034483</v>
+      </c>
+      <c r="K24" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="14" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="M24" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="12" t="n"/>
+      <c r="B25" s="12" t="n"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>900002</t>
+        </is>
+      </c>
+      <c r="E25" s="13" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F25" s="14" t="n">
+        <v>0.1035598705501618</v>
+      </c>
+      <c r="G25" s="14" t="n">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="H25" s="14" t="n">
+        <v>0.1170212765957447</v>
+      </c>
+      <c r="I25" s="14" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J25" s="14" t="n">
+        <v>0.05172413793103448</v>
+      </c>
+      <c r="K25" s="15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L25" s="14" t="n">
+        <v>0.234375</v>
+      </c>
+      <c r="M25" s="15" t="n">
+        <v>0.07246376811594203</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="12" t="n"/>
+      <c r="B26" s="12" t="n"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="E26" s="13" t="inlineStr">
+        <is>
+          <t>T2B</t>
+        </is>
+      </c>
+      <c r="F26" s="14" t="n">
+        <v>0.883495145631068</v>
+      </c>
+      <c r="G26" s="14" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="H26" s="14" t="n">
+        <v>0.8617021276595744</v>
+      </c>
+      <c r="I26" s="14" t="n">
+        <v>0.872</v>
+      </c>
+      <c r="J26" s="14" t="n">
+        <v>0.9310344827586207</v>
+      </c>
+      <c r="K26" s="15" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L26" s="14" t="n">
+        <v>0.734375</v>
+      </c>
+      <c r="M26" s="15" t="n">
+        <v>0.927536231884058</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="19" t="n"/>
+      <c r="B27" s="19" t="n"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="E27" s="23" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="F27" s="23" t="n">
+        <v>4.194174757281553</v>
+      </c>
+      <c r="G27" s="23" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="H27" s="23" t="n">
+        <v>4.159574468085107</v>
+      </c>
+      <c r="I27" s="23" t="n">
+        <v>4.184</v>
+      </c>
+      <c r="J27" s="23" t="n">
+        <v>4.258620689655173</v>
+      </c>
+      <c r="K27" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="L27" s="23" t="n">
+        <v>3.890625</v>
+      </c>
+      <c r="M27" s="24" t="n">
+        <v>4.318840579710145</v>
+      </c>
+    </row>
+    <row r="28"/>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="F3:Q3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="N4:O4"/>
+  <mergeCells count="6">
+    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="B18:B27"/>
+    <mergeCell ref="B5:B17"/>
+    <mergeCell ref="F3:K3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
@@ -1279,6 +1956,1231 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col hidden="1" width="13" customWidth="1" min="3" max="3"/>
+    <col hidden="1" width="13" customWidth="1" min="4" max="4"/>
+    <col width="40" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" hidden="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>qre_name</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>qre_lbl</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>qre_type</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>cat_val</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>cat_lbl</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Age &gt; 0@Age@TOTAL@val@A</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Age == 2@Age@18 - 24@val@B</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Age == 3@Age@25 - 30@val@C</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Age == 4@Age@31 - 39@val@D</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Age == 5@Age@40 - 50@val@E</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Age == 6@Age@Trên 50@val@F</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>City.isin([1, 5, 10, 11, 12])@Location@All South@val@A</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>City.isin([2, 4, 16, 17, 18])@Location@All North@val@B</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" hidden="1">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Age &gt; 0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Age == 2</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Age == 3</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Age == 4</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Age == 5</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Age == 6</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>City.isin([1, 5, 10, 11, 12])</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>City.isin([2, 4, 16, 17, 18])</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Cell content: count</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="n"/>
+      <c r="H3" s="5" t="n"/>
+      <c r="I3" s="5" t="n"/>
+      <c r="J3" s="5" t="n"/>
+      <c r="K3" s="6" t="n"/>
+      <c r="L3" s="4" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="M3" s="6" t="n"/>
+    </row>
+    <row r="4" ht="30" customHeight="1">
+      <c r="F4" s="7" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="G4" s="7" t="inlineStr">
+        <is>
+          <t>18 - 24</t>
+        </is>
+      </c>
+      <c r="H4" s="7" t="inlineStr">
+        <is>
+          <t>25 - 30</t>
+        </is>
+      </c>
+      <c r="I4" s="7" t="inlineStr">
+        <is>
+          <t>31 - 39</t>
+        </is>
+      </c>
+      <c r="J4" s="7" t="inlineStr">
+        <is>
+          <t>40 - 50</t>
+        </is>
+      </c>
+      <c r="K4" s="7" t="inlineStr">
+        <is>
+          <t>Trên 50</t>
+        </is>
+      </c>
+      <c r="L4" s="7" t="inlineStr">
+        <is>
+          <t>All South</t>
+        </is>
+      </c>
+      <c r="M4" s="7" t="inlineStr">
+        <is>
+          <t>All North</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="B5" s="9" t="inlineStr">
+        <is>
+          <t>Please indicate any dental problems that the rest of your family members (&gt; 12 years old) have had in the past 6 months</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E5" s="10" t="inlineStr">
+        <is>
+          <t>Base</t>
+        </is>
+      </c>
+      <c r="F5" s="10" t="n">
+        <v>309</v>
+      </c>
+      <c r="G5" s="10" t="n">
+        <v>28</v>
+      </c>
+      <c r="H5" s="10" t="n">
+        <v>94</v>
+      </c>
+      <c r="I5" s="10" t="n">
+        <v>125</v>
+      </c>
+      <c r="J5" s="10" t="n">
+        <v>58</v>
+      </c>
+      <c r="K5" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" s="10" t="n">
+        <v>64</v>
+      </c>
+      <c r="M5" s="11" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="12" t="n"/>
+      <c r="B6" s="12" t="n"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>900001</t>
+        </is>
+      </c>
+      <c r="E6" s="25" t="inlineStr">
+        <is>
+          <t>Group 1 + 2</t>
+        </is>
+      </c>
+      <c r="F6" s="26" t="n">
+        <v>221</v>
+      </c>
+      <c r="G6" s="26" t="n">
+        <v>22</v>
+      </c>
+      <c r="H6" s="26" t="n">
+        <v>71</v>
+      </c>
+      <c r="I6" s="26" t="n">
+        <v>82</v>
+      </c>
+      <c r="J6" s="26" t="n">
+        <v>43</v>
+      </c>
+      <c r="K6" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" s="26" t="n">
+        <v>31</v>
+      </c>
+      <c r="M6" s="27" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="12" t="n"/>
+      <c r="B7" s="12" t="n"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>900002</t>
+        </is>
+      </c>
+      <c r="E7" s="25" t="inlineStr">
+        <is>
+          <t>Group 1</t>
+        </is>
+      </c>
+      <c r="F7" s="26" t="n">
+        <v>184</v>
+      </c>
+      <c r="G7" s="26" t="n">
+        <v>18</v>
+      </c>
+      <c r="H7" s="26" t="n">
+        <v>55</v>
+      </c>
+      <c r="I7" s="26" t="n">
+        <v>71</v>
+      </c>
+      <c r="J7" s="26" t="n">
+        <v>37</v>
+      </c>
+      <c r="K7" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="M7" s="27" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="12" t="n"/>
+      <c r="B8" s="12" t="n"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - Yellow/dull teeth</t>
+        </is>
+      </c>
+      <c r="F8" s="16" t="n">
+        <v>61</v>
+      </c>
+      <c r="G8" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="H8" s="16" t="n">
+        <v>11</v>
+      </c>
+      <c r="I8" s="16" t="n">
+        <v>24</v>
+      </c>
+      <c r="J8" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="K8" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="M8" s="28" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="12" t="n"/>
+      <c r="B9" s="12" t="n"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E9" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - Dental plaque</t>
+        </is>
+      </c>
+      <c r="F9" s="16" t="n">
+        <v>91</v>
+      </c>
+      <c r="G9" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="H9" s="16" t="n">
+        <v>26</v>
+      </c>
+      <c r="I9" s="16" t="n">
+        <v>35</v>
+      </c>
+      <c r="J9" s="16" t="n">
+        <v>21</v>
+      </c>
+      <c r="K9" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" s="28" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="12" t="n"/>
+      <c r="B10" s="12" t="n"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - Bad breath</t>
+        </is>
+      </c>
+      <c r="F10" s="16" t="n">
+        <v>61</v>
+      </c>
+      <c r="G10" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="I10" s="16" t="n">
+        <v>25</v>
+      </c>
+      <c r="J10" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="K10" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="M10" s="28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="12" t="n"/>
+      <c r="B11" s="12" t="n"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E11" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - Aphthousulcer</t>
+        </is>
+      </c>
+      <c r="F11" s="16" t="n">
+        <v>89</v>
+      </c>
+      <c r="G11" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="H11" s="16" t="n">
+        <v>32</v>
+      </c>
+      <c r="I11" s="16" t="n">
+        <v>33</v>
+      </c>
+      <c r="J11" s="16" t="n">
+        <v>13</v>
+      </c>
+      <c r="K11" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="M11" s="28" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="12" t="n"/>
+      <c r="B12" s="12" t="n"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="E12" s="25" t="inlineStr">
+        <is>
+          <t>Group 2</t>
+        </is>
+      </c>
+      <c r="F12" s="26" t="n">
+        <v>96</v>
+      </c>
+      <c r="G12" s="26" t="n">
+        <v>11</v>
+      </c>
+      <c r="H12" s="26" t="n">
+        <v>38</v>
+      </c>
+      <c r="I12" s="26" t="n">
+        <v>29</v>
+      </c>
+      <c r="J12" s="26" t="n">
+        <v>16</v>
+      </c>
+      <c r="K12" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" s="26" t="n">
+        <v>18</v>
+      </c>
+      <c r="M12" s="27" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="12" t="n"/>
+      <c r="B13" s="12" t="n"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - Sensitive teeth</t>
+        </is>
+      </c>
+      <c r="F13" s="16" t="n">
+        <v>45</v>
+      </c>
+      <c r="G13" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" s="16" t="n">
+        <v>17</v>
+      </c>
+      <c r="I13" s="16" t="n">
+        <v>11</v>
+      </c>
+      <c r="J13" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K13" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="M13" s="28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="12" t="n"/>
+      <c r="B14" s="12" t="n"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E14" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - Caries</t>
+        </is>
+      </c>
+      <c r="F14" s="16" t="n">
+        <v>51</v>
+      </c>
+      <c r="G14" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" s="16" t="n">
+        <v>24</v>
+      </c>
+      <c r="I14" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="J14" s="16" t="n">
+        <v>9</v>
+      </c>
+      <c r="K14" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="M14" s="28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="12" t="n"/>
+      <c r="B15" s="12" t="n"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E15" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - Gingivitis (bleeding, swollen gums)</t>
+        </is>
+      </c>
+      <c r="F15" s="16" t="n">
+        <v>26</v>
+      </c>
+      <c r="G15" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="I15" s="16" t="n">
+        <v>11</v>
+      </c>
+      <c r="J15" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="M15" s="28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="12" t="n"/>
+      <c r="B16" s="12" t="n"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E16" s="16" t="inlineStr">
+        <is>
+          <t>Other (specify)</t>
+        </is>
+      </c>
+      <c r="F16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="19" t="n"/>
+      <c r="B17" s="19" t="n"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E17" s="20" t="inlineStr">
+        <is>
+          <t>No problem</t>
+        </is>
+      </c>
+      <c r="F17" s="20" t="n">
+        <v>88</v>
+      </c>
+      <c r="G17" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="H17" s="20" t="n">
+        <v>23</v>
+      </c>
+      <c r="I17" s="20" t="n">
+        <v>43</v>
+      </c>
+      <c r="J17" s="20" t="n">
+        <v>15</v>
+      </c>
+      <c r="K17" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="20" t="n">
+        <v>33</v>
+      </c>
+      <c r="M17" s="29" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>Perception</t>
+        </is>
+      </c>
+      <c r="B18" s="9" t="inlineStr">
+        <is>
+          <t>Please indicate how much you agree with the statement that P/S is making efforts to make it easier for people to access experts and dentists, in order to improve the oral health of Vietnamese people?</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E18" s="10" t="inlineStr">
+        <is>
+          <t>Base</t>
+        </is>
+      </c>
+      <c r="F18" s="10" t="n">
+        <v>309</v>
+      </c>
+      <c r="G18" s="10" t="n">
+        <v>28</v>
+      </c>
+      <c r="H18" s="10" t="n">
+        <v>94</v>
+      </c>
+      <c r="I18" s="10" t="n">
+        <v>125</v>
+      </c>
+      <c r="J18" s="10" t="n">
+        <v>58</v>
+      </c>
+      <c r="K18" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="L18" s="10" t="n">
+        <v>64</v>
+      </c>
+      <c r="M18" s="11" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="12" t="n"/>
+      <c r="B19" s="12" t="n"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="16" t="inlineStr">
+        <is>
+          <t>Totally disagree</t>
+        </is>
+      </c>
+      <c r="F19" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="12" t="n"/>
+      <c r="B20" s="12" t="n"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E20" s="16" t="inlineStr">
+        <is>
+          <t>Disagree</t>
+        </is>
+      </c>
+      <c r="F20" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="M20" s="28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="12" t="n"/>
+      <c r="B21" s="12" t="n"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E21" s="16" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F21" s="16" t="n">
+        <v>32</v>
+      </c>
+      <c r="G21" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" s="16" t="n">
+        <v>11</v>
+      </c>
+      <c r="I21" s="16" t="n">
+        <v>15</v>
+      </c>
+      <c r="J21" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K21" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="16" t="n">
+        <v>15</v>
+      </c>
+      <c r="M21" s="28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="12" t="n"/>
+      <c r="B22" s="12" t="n"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E22" s="16" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="F22" s="16" t="n">
+        <v>172</v>
+      </c>
+      <c r="G22" s="16" t="n">
+        <v>17</v>
+      </c>
+      <c r="H22" s="16" t="n">
+        <v>50</v>
+      </c>
+      <c r="I22" s="16" t="n">
+        <v>69</v>
+      </c>
+      <c r="J22" s="16" t="n">
+        <v>34</v>
+      </c>
+      <c r="K22" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="L22" s="16" t="n">
+        <v>35</v>
+      </c>
+      <c r="M22" s="28" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="12" t="n"/>
+      <c r="B23" s="12" t="n"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E23" s="16" t="inlineStr">
+        <is>
+          <t>Totally agree</t>
+        </is>
+      </c>
+      <c r="F23" s="16" t="n">
+        <v>101</v>
+      </c>
+      <c r="G23" s="16" t="n">
+        <v>9</v>
+      </c>
+      <c r="H23" s="16" t="n">
+        <v>31</v>
+      </c>
+      <c r="I23" s="16" t="n">
+        <v>40</v>
+      </c>
+      <c r="J23" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="K23" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="M23" s="28" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="12" t="n"/>
+      <c r="B24" s="12" t="n"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>900001</t>
+        </is>
+      </c>
+      <c r="E24" s="25" t="inlineStr">
+        <is>
+          <t>B2B</t>
+        </is>
+      </c>
+      <c r="F24" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G24" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="M24" s="27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="12" t="n"/>
+      <c r="B25" s="12" t="n"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>900002</t>
+        </is>
+      </c>
+      <c r="E25" s="25" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F25" s="26" t="n">
+        <v>32</v>
+      </c>
+      <c r="G25" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" s="26" t="n">
+        <v>11</v>
+      </c>
+      <c r="I25" s="26" t="n">
+        <v>15</v>
+      </c>
+      <c r="J25" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="K25" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" s="26" t="n">
+        <v>15</v>
+      </c>
+      <c r="M25" s="27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="12" t="n"/>
+      <c r="B26" s="12" t="n"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="E26" s="25" t="inlineStr">
+        <is>
+          <t>T2B</t>
+        </is>
+      </c>
+      <c r="F26" s="26" t="n">
+        <v>273</v>
+      </c>
+      <c r="G26" s="26" t="n">
+        <v>26</v>
+      </c>
+      <c r="H26" s="26" t="n">
+        <v>81</v>
+      </c>
+      <c r="I26" s="26" t="n">
+        <v>109</v>
+      </c>
+      <c r="J26" s="26" t="n">
+        <v>54</v>
+      </c>
+      <c r="K26" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="L26" s="26" t="n">
+        <v>47</v>
+      </c>
+      <c r="M26" s="27" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="19" t="n"/>
+      <c r="B27" s="19" t="n"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="E27" s="23" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="F27" s="23" t="n">
+        <v>4.194174757281553</v>
+      </c>
+      <c r="G27" s="23" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="H27" s="23" t="n">
+        <v>4.159574468085107</v>
+      </c>
+      <c r="I27" s="23" t="n">
+        <v>4.184</v>
+      </c>
+      <c r="J27" s="23" t="n">
+        <v>4.258620689655173</v>
+      </c>
+      <c r="K27" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="L27" s="23" t="n">
+        <v>3.890625</v>
+      </c>
+      <c r="M27" s="24" t="n">
+        <v>4.318840579710145</v>
+      </c>
+    </row>
+    <row r="28"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="B18:B27"/>
+    <mergeCell ref="B5:B17"/>
+    <mergeCell ref="F3:K3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1606,7 +3508,7 @@
           <t>Cell content: percentage(%)</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="30" t="inlineStr">
         <is>
           <t>Age</t>
         </is>
@@ -1614,23 +3516,23 @@
       <c r="G3" s="5" t="n"/>
       <c r="H3" s="5" t="n"/>
       <c r="I3" s="5" t="n"/>
-      <c r="J3" s="26" t="n"/>
+      <c r="J3" s="31" t="n"/>
       <c r="K3" s="5" t="n"/>
       <c r="L3" s="5" t="n"/>
       <c r="M3" s="5" t="n"/>
-      <c r="N3" s="26" t="n"/>
+      <c r="N3" s="31" t="n"/>
       <c r="O3" s="5" t="n"/>
       <c r="P3" s="5" t="n"/>
       <c r="Q3" s="5" t="n"/>
-      <c r="R3" s="26" t="n"/>
+      <c r="R3" s="31" t="n"/>
       <c r="S3" s="5" t="n"/>
       <c r="T3" s="5" t="n"/>
       <c r="U3" s="5" t="n"/>
-      <c r="V3" s="26" t="n"/>
+      <c r="V3" s="31" t="n"/>
       <c r="W3" s="5" t="n"/>
       <c r="X3" s="5" t="n"/>
       <c r="Y3" s="5" t="n"/>
-      <c r="Z3" s="26" t="n"/>
+      <c r="Z3" s="31" t="n"/>
       <c r="AA3" s="5" t="n"/>
       <c r="AB3" s="5" t="n"/>
       <c r="AC3" s="6" t="n"/>
@@ -1641,7 +3543,7 @@
           <t>Dependent Pair T-test at level 90% &amp; 95%</t>
         </is>
       </c>
-      <c r="F4" s="7" t="inlineStr">
+      <c r="F4" s="32" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
@@ -1649,7 +3551,7 @@
       <c r="G4" s="5" t="n"/>
       <c r="H4" s="5" t="n"/>
       <c r="I4" s="6" t="n"/>
-      <c r="J4" s="7" t="inlineStr">
+      <c r="J4" s="32" t="inlineStr">
         <is>
           <t>18 - 24</t>
         </is>
@@ -1657,7 +3559,7 @@
       <c r="K4" s="5" t="n"/>
       <c r="L4" s="5" t="n"/>
       <c r="M4" s="6" t="n"/>
-      <c r="N4" s="7" t="inlineStr">
+      <c r="N4" s="32" t="inlineStr">
         <is>
           <t>25 - 30</t>
         </is>
@@ -1665,7 +3567,7 @@
       <c r="O4" s="5" t="n"/>
       <c r="P4" s="5" t="n"/>
       <c r="Q4" s="6" t="n"/>
-      <c r="R4" s="7" t="inlineStr">
+      <c r="R4" s="32" t="inlineStr">
         <is>
           <t>31 - 39</t>
         </is>
@@ -1673,7 +3575,7 @@
       <c r="S4" s="5" t="n"/>
       <c r="T4" s="5" t="n"/>
       <c r="U4" s="6" t="n"/>
-      <c r="V4" s="7" t="inlineStr">
+      <c r="V4" s="32" t="inlineStr">
         <is>
           <t>40 - 50</t>
         </is>
@@ -1681,7 +3583,7 @@
       <c r="W4" s="5" t="n"/>
       <c r="X4" s="5" t="n"/>
       <c r="Y4" s="6" t="n"/>
-      <c r="Z4" s="7" t="inlineStr">
+      <c r="Z4" s="32" t="inlineStr">
         <is>
           <t>Trên 50</t>
         </is>
@@ -1696,7 +3598,7 @@
           <t>Columns Tested: A/B</t>
         </is>
       </c>
-      <c r="F5" s="9" t="inlineStr">
+      <c r="F5" s="33" t="inlineStr">
         <is>
           <t>Ma_SP</t>
         </is>
@@ -1704,23 +3606,23 @@
       <c r="G5" s="5" t="n"/>
       <c r="H5" s="5" t="n"/>
       <c r="I5" s="5" t="n"/>
-      <c r="J5" s="26" t="n"/>
+      <c r="J5" s="31" t="n"/>
       <c r="K5" s="5" t="n"/>
       <c r="L5" s="5" t="n"/>
       <c r="M5" s="5" t="n"/>
-      <c r="N5" s="26" t="n"/>
+      <c r="N5" s="31" t="n"/>
       <c r="O5" s="5" t="n"/>
       <c r="P5" s="5" t="n"/>
       <c r="Q5" s="5" t="n"/>
-      <c r="R5" s="26" t="n"/>
+      <c r="R5" s="31" t="n"/>
       <c r="S5" s="5" t="n"/>
       <c r="T5" s="5" t="n"/>
       <c r="U5" s="5" t="n"/>
-      <c r="V5" s="26" t="n"/>
+      <c r="V5" s="31" t="n"/>
       <c r="W5" s="5" t="n"/>
       <c r="X5" s="5" t="n"/>
       <c r="Y5" s="5" t="n"/>
-      <c r="Z5" s="26" t="n"/>
+      <c r="Z5" s="31" t="n"/>
       <c r="AA5" s="5" t="n"/>
       <c r="AB5" s="5" t="n"/>
       <c r="AC5" s="6" t="n"/>
@@ -1731,73 +3633,73 @@
           <t>Uppercase for 95%, lowercase for 90%</t>
         </is>
       </c>
-      <c r="F6" s="27" t="inlineStr">
+      <c r="F6" s="34" t="inlineStr">
         <is>
           <t>AAA</t>
         </is>
       </c>
       <c r="G6" s="6" t="n"/>
-      <c r="H6" s="28" t="inlineStr">
+      <c r="H6" s="35" t="inlineStr">
         <is>
           <t>BBB</t>
         </is>
       </c>
       <c r="I6" s="6" t="n"/>
-      <c r="J6" s="27" t="inlineStr">
+      <c r="J6" s="34" t="inlineStr">
         <is>
           <t>AAA</t>
         </is>
       </c>
       <c r="K6" s="6" t="n"/>
-      <c r="L6" s="28" t="inlineStr">
+      <c r="L6" s="35" t="inlineStr">
         <is>
           <t>BBB</t>
         </is>
       </c>
       <c r="M6" s="6" t="n"/>
-      <c r="N6" s="27" t="inlineStr">
+      <c r="N6" s="34" t="inlineStr">
         <is>
           <t>AAA</t>
         </is>
       </c>
       <c r="O6" s="6" t="n"/>
-      <c r="P6" s="28" t="inlineStr">
+      <c r="P6" s="35" t="inlineStr">
         <is>
           <t>BBB</t>
         </is>
       </c>
       <c r="Q6" s="6" t="n"/>
-      <c r="R6" s="27" t="inlineStr">
+      <c r="R6" s="34" t="inlineStr">
         <is>
           <t>AAA</t>
         </is>
       </c>
       <c r="S6" s="6" t="n"/>
-      <c r="T6" s="28" t="inlineStr">
+      <c r="T6" s="35" t="inlineStr">
         <is>
           <t>BBB</t>
         </is>
       </c>
       <c r="U6" s="6" t="n"/>
-      <c r="V6" s="27" t="inlineStr">
+      <c r="V6" s="34" t="inlineStr">
         <is>
           <t>AAA</t>
         </is>
       </c>
       <c r="W6" s="6" t="n"/>
-      <c r="X6" s="28" t="inlineStr">
+      <c r="X6" s="35" t="inlineStr">
         <is>
           <t>BBB</t>
         </is>
       </c>
       <c r="Y6" s="6" t="n"/>
-      <c r="Z6" s="27" t="inlineStr">
+      <c r="Z6" s="34" t="inlineStr">
         <is>
           <t>AAA</t>
         </is>
       </c>
       <c r="AA6" s="6" t="n"/>
-      <c r="AB6" s="28" t="inlineStr">
+      <c r="AB6" s="35" t="inlineStr">
         <is>
           <t>BBB</t>
         </is>
@@ -1805,73 +3707,73 @@
       <c r="AC6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="F7" s="29" t="inlineStr">
+      <c r="F7" s="36" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
       <c r="G7" s="6" t="n"/>
-      <c r="H7" s="30" t="inlineStr">
+      <c r="H7" s="37" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
       <c r="I7" s="6" t="n"/>
-      <c r="J7" s="29" t="inlineStr">
+      <c r="J7" s="36" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
       <c r="K7" s="6" t="n"/>
-      <c r="L7" s="30" t="inlineStr">
+      <c r="L7" s="37" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
       <c r="M7" s="6" t="n"/>
-      <c r="N7" s="29" t="inlineStr">
+      <c r="N7" s="36" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
       <c r="O7" s="6" t="n"/>
-      <c r="P7" s="30" t="inlineStr">
+      <c r="P7" s="37" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
       <c r="Q7" s="6" t="n"/>
-      <c r="R7" s="29" t="inlineStr">
+      <c r="R7" s="36" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
       <c r="S7" s="6" t="n"/>
-      <c r="T7" s="30" t="inlineStr">
+      <c r="T7" s="37" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
       <c r="U7" s="6" t="n"/>
-      <c r="V7" s="29" t="inlineStr">
+      <c r="V7" s="36" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
       <c r="W7" s="6" t="n"/>
-      <c r="X7" s="30" t="inlineStr">
+      <c r="X7" s="37" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
       <c r="Y7" s="6" t="n"/>
-      <c r="Z7" s="29" t="inlineStr">
+      <c r="Z7" s="36" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
       <c r="AA7" s="6" t="n"/>
-      <c r="AB7" s="30" t="inlineStr">
+      <c r="AB7" s="37" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -1879,12 +3781,12 @@
       <c r="AC7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="inlineStr">
+      <c r="A8" s="8" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="B8" s="12" t="inlineStr">
+      <c r="B8" s="9" t="inlineStr">
         <is>
           <t>Q1. OL</t>
         </is>
@@ -1899,63 +3801,63 @@
           <t>base</t>
         </is>
       </c>
-      <c r="E8" s="13" t="inlineStr">
+      <c r="E8" s="10" t="inlineStr">
         <is>
           <t>Base</t>
         </is>
       </c>
-      <c r="F8" s="14" t="n">
+      <c r="F8" s="38" t="n">
         <v>363</v>
       </c>
-      <c r="G8" s="15" t="inlineStr"/>
-      <c r="H8" s="13" t="n">
+      <c r="G8" s="11" t="inlineStr"/>
+      <c r="H8" s="10" t="n">
         <v>363</v>
       </c>
-      <c r="I8" s="15" t="inlineStr"/>
-      <c r="J8" s="14" t="n">
+      <c r="I8" s="11" t="inlineStr"/>
+      <c r="J8" s="38" t="n">
         <v>31</v>
       </c>
-      <c r="K8" s="15" t="inlineStr"/>
-      <c r="L8" s="13" t="n">
+      <c r="K8" s="11" t="inlineStr"/>
+      <c r="L8" s="10" t="n">
         <v>31</v>
       </c>
-      <c r="M8" s="15" t="inlineStr"/>
-      <c r="N8" s="14" t="n">
+      <c r="M8" s="11" t="inlineStr"/>
+      <c r="N8" s="38" t="n">
         <v>109</v>
       </c>
-      <c r="O8" s="15" t="inlineStr"/>
-      <c r="P8" s="13" t="n">
+      <c r="O8" s="11" t="inlineStr"/>
+      <c r="P8" s="10" t="n">
         <v>109</v>
       </c>
-      <c r="Q8" s="15" t="inlineStr"/>
-      <c r="R8" s="14" t="n">
+      <c r="Q8" s="11" t="inlineStr"/>
+      <c r="R8" s="38" t="n">
         <v>158</v>
       </c>
-      <c r="S8" s="15" t="inlineStr"/>
-      <c r="T8" s="13" t="n">
+      <c r="S8" s="11" t="inlineStr"/>
+      <c r="T8" s="10" t="n">
         <v>158</v>
       </c>
-      <c r="U8" s="15" t="inlineStr"/>
-      <c r="V8" s="14" t="n">
+      <c r="U8" s="11" t="inlineStr"/>
+      <c r="V8" s="38" t="n">
         <v>61</v>
       </c>
-      <c r="W8" s="15" t="inlineStr"/>
-      <c r="X8" s="13" t="n">
+      <c r="W8" s="11" t="inlineStr"/>
+      <c r="X8" s="10" t="n">
         <v>61</v>
       </c>
-      <c r="Y8" s="15" t="inlineStr"/>
-      <c r="Z8" s="14" t="n">
+      <c r="Y8" s="11" t="inlineStr"/>
+      <c r="Z8" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="AA8" s="15" t="inlineStr"/>
-      <c r="AB8" s="13" t="n">
+      <c r="AA8" s="11" t="inlineStr"/>
+      <c r="AB8" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="AC8" s="15" t="inlineStr"/>
+      <c r="AC8" s="11" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="16" t="n"/>
-      <c r="B9" s="16" t="n"/>
+      <c r="A9" s="12" t="n"/>
+      <c r="B9" s="12" t="n"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>SA</t>
@@ -1966,63 +3868,63 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E9" s="17" t="inlineStr">
+      <c r="E9" s="16" t="inlineStr">
         <is>
           <t>Totally disagree</t>
         </is>
       </c>
-      <c r="F9" s="18" t="n">
+      <c r="F9" s="39" t="n">
         <v>0.2011019283746557</v>
       </c>
-      <c r="G9" s="19" t="inlineStr"/>
-      <c r="H9" s="20" t="n">
+      <c r="G9" s="40" t="inlineStr"/>
+      <c r="H9" s="17" t="n">
         <v>0.2038567493112948</v>
       </c>
-      <c r="I9" s="19" t="inlineStr"/>
-      <c r="J9" s="18" t="n">
+      <c r="I9" s="40" t="inlineStr"/>
+      <c r="J9" s="39" t="n">
         <v>0.1290322580645161</v>
       </c>
-      <c r="K9" s="19" t="inlineStr"/>
-      <c r="L9" s="20" t="n">
+      <c r="K9" s="40" t="inlineStr"/>
+      <c r="L9" s="17" t="n">
         <v>0.1935483870967742</v>
       </c>
-      <c r="M9" s="19" t="inlineStr"/>
-      <c r="N9" s="18" t="n">
+      <c r="M9" s="40" t="inlineStr"/>
+      <c r="N9" s="39" t="n">
         <v>0.2293577981651376</v>
       </c>
-      <c r="O9" s="19" t="inlineStr"/>
-      <c r="P9" s="20" t="n">
+      <c r="O9" s="40" t="inlineStr"/>
+      <c r="P9" s="17" t="n">
         <v>0.1834862385321101</v>
       </c>
-      <c r="Q9" s="19" t="inlineStr"/>
-      <c r="R9" s="18" t="n">
+      <c r="Q9" s="40" t="inlineStr"/>
+      <c r="R9" s="39" t="n">
         <v>0.2151898734177215</v>
       </c>
-      <c r="S9" s="19" t="inlineStr"/>
-      <c r="T9" s="20" t="n">
+      <c r="S9" s="40" t="inlineStr"/>
+      <c r="T9" s="17" t="n">
         <v>0.2025316455696203</v>
       </c>
-      <c r="U9" s="19" t="inlineStr"/>
-      <c r="V9" s="18" t="n">
+      <c r="U9" s="40" t="inlineStr"/>
+      <c r="V9" s="39" t="n">
         <v>0.1475409836065574</v>
       </c>
-      <c r="W9" s="19" t="inlineStr"/>
-      <c r="X9" s="20" t="n">
+      <c r="W9" s="40" t="inlineStr"/>
+      <c r="X9" s="17" t="n">
         <v>0.2295081967213115</v>
       </c>
-      <c r="Y9" s="19" t="inlineStr"/>
-      <c r="Z9" s="18" t="n">
+      <c r="Y9" s="40" t="inlineStr"/>
+      <c r="Z9" s="39" t="n">
         <v>0.25</v>
       </c>
-      <c r="AA9" s="19" t="inlineStr"/>
-      <c r="AB9" s="20" t="n">
+      <c r="AA9" s="40" t="inlineStr"/>
+      <c r="AB9" s="17" t="n">
         <v>0.5</v>
       </c>
-      <c r="AC9" s="19" t="inlineStr"/>
+      <c r="AC9" s="40" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="16" t="n"/>
-      <c r="B10" s="16" t="n"/>
+      <c r="A10" s="12" t="n"/>
+      <c r="B10" s="12" t="n"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>SA</t>
@@ -2033,79 +3935,79 @@
           <t>2</t>
         </is>
       </c>
-      <c r="E10" s="17" t="inlineStr">
+      <c r="E10" s="16" t="inlineStr">
         <is>
           <t>Disagree</t>
         </is>
       </c>
-      <c r="F10" s="18" t="n">
+      <c r="F10" s="39" t="n">
         <v>0.1873278236914601</v>
       </c>
-      <c r="G10" s="19" t="inlineStr"/>
-      <c r="H10" s="20" t="n">
+      <c r="G10" s="40" t="inlineStr"/>
+      <c r="H10" s="17" t="n">
         <v>0.4214876033057851</v>
       </c>
-      <c r="I10" s="19" t="inlineStr">
+      <c r="I10" s="40" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J10" s="18" t="n">
+      <c r="J10" s="39" t="n">
         <v>0.2903225806451613</v>
       </c>
-      <c r="K10" s="19" t="inlineStr"/>
-      <c r="L10" s="20" t="n">
+      <c r="K10" s="40" t="inlineStr"/>
+      <c r="L10" s="17" t="n">
         <v>0.3870967741935484</v>
       </c>
-      <c r="M10" s="19" t="inlineStr"/>
-      <c r="N10" s="18" t="n">
+      <c r="M10" s="40" t="inlineStr"/>
+      <c r="N10" s="39" t="n">
         <v>0.1192660550458716</v>
       </c>
-      <c r="O10" s="19" t="inlineStr"/>
-      <c r="P10" s="20" t="n">
+      <c r="O10" s="40" t="inlineStr"/>
+      <c r="P10" s="17" t="n">
         <v>0.4128440366972477</v>
       </c>
-      <c r="Q10" s="19" t="inlineStr">
+      <c r="Q10" s="40" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="R10" s="18" t="n">
+      <c r="R10" s="39" t="n">
         <v>0.1772151898734177</v>
       </c>
-      <c r="S10" s="19" t="inlineStr"/>
-      <c r="T10" s="20" t="n">
+      <c r="S10" s="40" t="inlineStr"/>
+      <c r="T10" s="17" t="n">
         <v>0.4303797468354431</v>
       </c>
-      <c r="U10" s="19" t="inlineStr">
+      <c r="U10" s="40" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="V10" s="18" t="n">
+      <c r="V10" s="39" t="n">
         <v>0.2786885245901639</v>
       </c>
-      <c r="W10" s="19" t="inlineStr"/>
-      <c r="X10" s="20" t="n">
+      <c r="W10" s="40" t="inlineStr"/>
+      <c r="X10" s="17" t="n">
         <v>0.4426229508196721</v>
       </c>
-      <c r="Y10" s="19" t="inlineStr">
+      <c r="Y10" s="40" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="Z10" s="18" t="n">
+      <c r="Z10" s="39" t="n">
         <v>0.25</v>
       </c>
-      <c r="AA10" s="19" t="inlineStr"/>
-      <c r="AB10" s="20" t="n">
+      <c r="AA10" s="40" t="inlineStr"/>
+      <c r="AB10" s="17" t="n">
         <v>0.25</v>
       </c>
-      <c r="AC10" s="19" t="inlineStr"/>
+      <c r="AC10" s="40" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="16" t="n"/>
-      <c r="B11" s="16" t="n"/>
+      <c r="A11" s="12" t="n"/>
+      <c r="B11" s="12" t="n"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>SA</t>
@@ -2116,63 +4018,63 @@
           <t>3</t>
         </is>
       </c>
-      <c r="E11" s="17" t="inlineStr">
+      <c r="E11" s="16" t="inlineStr">
         <is>
           <t>Neutral</t>
         </is>
       </c>
-      <c r="F11" s="18" t="n">
+      <c r="F11" s="39" t="n">
         <v>0.1983471074380165</v>
       </c>
-      <c r="G11" s="19" t="inlineStr"/>
-      <c r="H11" s="20" t="n">
+      <c r="G11" s="40" t="inlineStr"/>
+      <c r="H11" s="17" t="n">
         <v>0.1983471074380165</v>
       </c>
-      <c r="I11" s="19" t="inlineStr"/>
-      <c r="J11" s="18" t="n">
+      <c r="I11" s="40" t="inlineStr"/>
+      <c r="J11" s="39" t="n">
         <v>0.1935483870967742</v>
       </c>
-      <c r="K11" s="19" t="inlineStr"/>
-      <c r="L11" s="20" t="n">
+      <c r="K11" s="40" t="inlineStr"/>
+      <c r="L11" s="17" t="n">
         <v>0.1612903225806452</v>
       </c>
-      <c r="M11" s="19" t="inlineStr"/>
-      <c r="N11" s="18" t="n">
+      <c r="M11" s="40" t="inlineStr"/>
+      <c r="N11" s="39" t="n">
         <v>0.1651376146788991</v>
       </c>
-      <c r="O11" s="19" t="inlineStr"/>
-      <c r="P11" s="20" t="n">
+      <c r="O11" s="40" t="inlineStr"/>
+      <c r="P11" s="17" t="n">
         <v>0.2385321100917431</v>
       </c>
-      <c r="Q11" s="19" t="inlineStr"/>
-      <c r="R11" s="18" t="n">
+      <c r="Q11" s="40" t="inlineStr"/>
+      <c r="R11" s="39" t="n">
         <v>0.2405063291139241</v>
       </c>
-      <c r="S11" s="19" t="inlineStr"/>
-      <c r="T11" s="20" t="n">
+      <c r="S11" s="40" t="inlineStr"/>
+      <c r="T11" s="17" t="n">
         <v>0.2088607594936709</v>
       </c>
-      <c r="U11" s="19" t="inlineStr"/>
-      <c r="V11" s="18" t="n">
+      <c r="U11" s="40" t="inlineStr"/>
+      <c r="V11" s="39" t="n">
         <v>0.1639344262295082</v>
       </c>
-      <c r="W11" s="19" t="inlineStr"/>
-      <c r="X11" s="20" t="n">
+      <c r="W11" s="40" t="inlineStr"/>
+      <c r="X11" s="17" t="n">
         <v>0.1147540983606557</v>
       </c>
-      <c r="Y11" s="19" t="inlineStr"/>
-      <c r="Z11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="19" t="inlineStr"/>
-      <c r="AB11" s="20" t="n">
+      <c r="Y11" s="40" t="inlineStr"/>
+      <c r="Z11" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="40" t="inlineStr"/>
+      <c r="AB11" s="17" t="n">
         <v>0.25</v>
       </c>
-      <c r="AC11" s="19" t="inlineStr"/>
+      <c r="AC11" s="40" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="16" t="n"/>
-      <c r="B12" s="16" t="n"/>
+      <c r="A12" s="12" t="n"/>
+      <c r="B12" s="12" t="n"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>SA</t>
@@ -2183,71 +4085,71 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E12" s="17" t="inlineStr">
+      <c r="E12" s="16" t="inlineStr">
         <is>
           <t>Agree</t>
         </is>
       </c>
-      <c r="F12" s="18" t="n">
+      <c r="F12" s="39" t="n">
         <v>0.2341597796143251</v>
       </c>
-      <c r="G12" s="19" t="inlineStr">
+      <c r="G12" s="40" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="H12" s="20" t="n">
+      <c r="H12" s="17" t="n">
         <v>0.1763085399449036</v>
       </c>
-      <c r="I12" s="19" t="inlineStr"/>
-      <c r="J12" s="18" t="n">
+      <c r="I12" s="40" t="inlineStr"/>
+      <c r="J12" s="39" t="n">
         <v>0.2258064516129032</v>
       </c>
-      <c r="K12" s="19" t="inlineStr"/>
-      <c r="L12" s="20" t="n">
+      <c r="K12" s="40" t="inlineStr"/>
+      <c r="L12" s="17" t="n">
         <v>0.2580645161290323</v>
       </c>
-      <c r="M12" s="19" t="inlineStr"/>
-      <c r="N12" s="18" t="n">
+      <c r="M12" s="40" t="inlineStr"/>
+      <c r="N12" s="39" t="n">
         <v>0.2844036697247707</v>
       </c>
-      <c r="O12" s="19" t="inlineStr">
+      <c r="O12" s="40" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="P12" s="20" t="n">
+      <c r="P12" s="17" t="n">
         <v>0.1651376146788991</v>
       </c>
-      <c r="Q12" s="19" t="inlineStr"/>
-      <c r="R12" s="18" t="n">
+      <c r="Q12" s="40" t="inlineStr"/>
+      <c r="R12" s="39" t="n">
         <v>0.2151898734177215</v>
       </c>
-      <c r="S12" s="19" t="inlineStr"/>
-      <c r="T12" s="20" t="n">
+      <c r="S12" s="40" t="inlineStr"/>
+      <c r="T12" s="17" t="n">
         <v>0.1582278481012658</v>
       </c>
-      <c r="U12" s="19" t="inlineStr"/>
-      <c r="V12" s="18" t="n">
+      <c r="U12" s="40" t="inlineStr"/>
+      <c r="V12" s="39" t="n">
         <v>0.2131147540983606</v>
       </c>
-      <c r="W12" s="19" t="inlineStr"/>
-      <c r="X12" s="20" t="n">
+      <c r="W12" s="40" t="inlineStr"/>
+      <c r="X12" s="17" t="n">
         <v>0.2131147540983606</v>
       </c>
-      <c r="Y12" s="19" t="inlineStr"/>
-      <c r="Z12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="19" t="inlineStr"/>
-      <c r="AB12" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="19" t="inlineStr"/>
+      <c r="Y12" s="40" t="inlineStr"/>
+      <c r="Z12" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="40" t="inlineStr"/>
+      <c r="AB12" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="40" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="16" t="n"/>
-      <c r="B13" s="16" t="n"/>
+      <c r="A13" s="12" t="n"/>
+      <c r="B13" s="12" t="n"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>SA</t>
@@ -2258,63 +4160,63 @@
           <t>5</t>
         </is>
       </c>
-      <c r="E13" s="17" t="inlineStr">
+      <c r="E13" s="16" t="inlineStr">
         <is>
           <t>Totally agree</t>
         </is>
       </c>
-      <c r="F13" s="18" t="n">
+      <c r="F13" s="39" t="n">
         <v>0.1790633608815427</v>
       </c>
-      <c r="G13" s="19" t="inlineStr"/>
-      <c r="H13" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="19" t="inlineStr"/>
-      <c r="J13" s="18" t="n">
+      <c r="G13" s="40" t="inlineStr"/>
+      <c r="H13" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="40" t="inlineStr"/>
+      <c r="J13" s="39" t="n">
         <v>0.1612903225806452</v>
       </c>
-      <c r="K13" s="19" t="inlineStr"/>
-      <c r="L13" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="19" t="inlineStr"/>
-      <c r="N13" s="18" t="n">
+      <c r="K13" s="40" t="inlineStr"/>
+      <c r="L13" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="40" t="inlineStr"/>
+      <c r="N13" s="39" t="n">
         <v>0.2018348623853211</v>
       </c>
-      <c r="O13" s="19" t="inlineStr"/>
-      <c r="P13" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="19" t="inlineStr"/>
-      <c r="R13" s="18" t="n">
+      <c r="O13" s="40" t="inlineStr"/>
+      <c r="P13" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="40" t="inlineStr"/>
+      <c r="R13" s="39" t="n">
         <v>0.1518987341772152</v>
       </c>
-      <c r="S13" s="19" t="inlineStr"/>
-      <c r="T13" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" s="19" t="inlineStr"/>
-      <c r="V13" s="18" t="n">
+      <c r="S13" s="40" t="inlineStr"/>
+      <c r="T13" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" s="40" t="inlineStr"/>
+      <c r="V13" s="39" t="n">
         <v>0.1967213114754098</v>
       </c>
-      <c r="W13" s="19" t="inlineStr"/>
-      <c r="X13" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="19" t="inlineStr"/>
-      <c r="Z13" s="18" t="n">
+      <c r="W13" s="40" t="inlineStr"/>
+      <c r="X13" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="40" t="inlineStr"/>
+      <c r="Z13" s="39" t="n">
         <v>0.5</v>
       </c>
-      <c r="AA13" s="19" t="inlineStr"/>
-      <c r="AB13" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="19" t="inlineStr"/>
+      <c r="AA13" s="40" t="inlineStr"/>
+      <c r="AB13" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="40" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="16" t="n"/>
-      <c r="B14" s="16" t="n"/>
+      <c r="A14" s="12" t="n"/>
+      <c r="B14" s="12" t="n"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>SA</t>
@@ -2325,79 +4227,79 @@
           <t>900001</t>
         </is>
       </c>
-      <c r="E14" s="31" t="inlineStr">
+      <c r="E14" s="13" t="inlineStr">
         <is>
           <t>B2B</t>
         </is>
       </c>
-      <c r="F14" s="32" t="n">
+      <c r="F14" s="41" t="n">
         <v>0.3884297520661157</v>
       </c>
-      <c r="G14" s="19" t="inlineStr"/>
-      <c r="H14" s="33" t="n">
+      <c r="G14" s="40" t="inlineStr"/>
+      <c r="H14" s="14" t="n">
         <v>0.6253443526170799</v>
       </c>
-      <c r="I14" s="19" t="inlineStr">
+      <c r="I14" s="40" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J14" s="32" t="n">
+      <c r="J14" s="41" t="n">
         <v>0.4193548387096774</v>
       </c>
-      <c r="K14" s="19" t="inlineStr"/>
-      <c r="L14" s="33" t="n">
+      <c r="K14" s="40" t="inlineStr"/>
+      <c r="L14" s="14" t="n">
         <v>0.5806451612903226</v>
       </c>
-      <c r="M14" s="19" t="inlineStr"/>
-      <c r="N14" s="32" t="n">
+      <c r="M14" s="40" t="inlineStr"/>
+      <c r="N14" s="41" t="n">
         <v>0.3486238532110092</v>
       </c>
-      <c r="O14" s="19" t="inlineStr"/>
-      <c r="P14" s="33" t="n">
+      <c r="O14" s="40" t="inlineStr"/>
+      <c r="P14" s="14" t="n">
         <v>0.5963302752293578</v>
       </c>
-      <c r="Q14" s="19" t="inlineStr">
+      <c r="Q14" s="40" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="R14" s="32" t="n">
+      <c r="R14" s="41" t="n">
         <v>0.3924050632911392</v>
       </c>
-      <c r="S14" s="19" t="inlineStr"/>
-      <c r="T14" s="33" t="n">
+      <c r="S14" s="40" t="inlineStr"/>
+      <c r="T14" s="14" t="n">
         <v>0.6329113924050633</v>
       </c>
-      <c r="U14" s="19" t="inlineStr">
+      <c r="U14" s="40" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="V14" s="32" t="n">
+      <c r="V14" s="41" t="n">
         <v>0.4262295081967213</v>
       </c>
-      <c r="W14" s="19" t="inlineStr"/>
-      <c r="X14" s="33" t="n">
+      <c r="W14" s="40" t="inlineStr"/>
+      <c r="X14" s="14" t="n">
         <v>0.6721311475409836</v>
       </c>
-      <c r="Y14" s="19" t="inlineStr">
+      <c r="Y14" s="40" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="Z14" s="32" t="n">
+      <c r="Z14" s="41" t="n">
         <v>0.5</v>
       </c>
-      <c r="AA14" s="19" t="inlineStr"/>
-      <c r="AB14" s="33" t="n">
+      <c r="AA14" s="40" t="inlineStr"/>
+      <c r="AB14" s="14" t="n">
         <v>0.75</v>
       </c>
-      <c r="AC14" s="19" t="inlineStr"/>
+      <c r="AC14" s="40" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="16" t="n"/>
-      <c r="B15" s="16" t="n"/>
+      <c r="A15" s="12" t="n"/>
+      <c r="B15" s="12" t="n"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>SA</t>
@@ -2408,63 +4310,63 @@
           <t>900002</t>
         </is>
       </c>
-      <c r="E15" s="31" t="inlineStr">
+      <c r="E15" s="13" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="F15" s="32" t="n">
+      <c r="F15" s="41" t="n">
         <v>0.1983471074380165</v>
       </c>
-      <c r="G15" s="19" t="inlineStr"/>
-      <c r="H15" s="33" t="n">
+      <c r="G15" s="40" t="inlineStr"/>
+      <c r="H15" s="14" t="n">
         <v>0.1983471074380165</v>
       </c>
-      <c r="I15" s="19" t="inlineStr"/>
-      <c r="J15" s="32" t="n">
+      <c r="I15" s="40" t="inlineStr"/>
+      <c r="J15" s="41" t="n">
         <v>0.1935483870967742</v>
       </c>
-      <c r="K15" s="19" t="inlineStr"/>
-      <c r="L15" s="33" t="n">
+      <c r="K15" s="40" t="inlineStr"/>
+      <c r="L15" s="14" t="n">
         <v>0.1612903225806452</v>
       </c>
-      <c r="M15" s="19" t="inlineStr"/>
-      <c r="N15" s="32" t="n">
+      <c r="M15" s="40" t="inlineStr"/>
+      <c r="N15" s="41" t="n">
         <v>0.1651376146788991</v>
       </c>
-      <c r="O15" s="19" t="inlineStr"/>
-      <c r="P15" s="33" t="n">
+      <c r="O15" s="40" t="inlineStr"/>
+      <c r="P15" s="14" t="n">
         <v>0.2385321100917431</v>
       </c>
-      <c r="Q15" s="19" t="inlineStr"/>
-      <c r="R15" s="32" t="n">
+      <c r="Q15" s="40" t="inlineStr"/>
+      <c r="R15" s="41" t="n">
         <v>0.2405063291139241</v>
       </c>
-      <c r="S15" s="19" t="inlineStr"/>
-      <c r="T15" s="33" t="n">
+      <c r="S15" s="40" t="inlineStr"/>
+      <c r="T15" s="14" t="n">
         <v>0.2088607594936709</v>
       </c>
-      <c r="U15" s="19" t="inlineStr"/>
-      <c r="V15" s="32" t="n">
+      <c r="U15" s="40" t="inlineStr"/>
+      <c r="V15" s="41" t="n">
         <v>0.1639344262295082</v>
       </c>
-      <c r="W15" s="19" t="inlineStr"/>
-      <c r="X15" s="33" t="n">
+      <c r="W15" s="40" t="inlineStr"/>
+      <c r="X15" s="14" t="n">
         <v>0.1147540983606557</v>
       </c>
-      <c r="Y15" s="19" t="inlineStr"/>
-      <c r="Z15" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="19" t="inlineStr"/>
-      <c r="AB15" s="33" t="n">
+      <c r="Y15" s="40" t="inlineStr"/>
+      <c r="Z15" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="40" t="inlineStr"/>
+      <c r="AB15" s="14" t="n">
         <v>0.25</v>
       </c>
-      <c r="AC15" s="19" t="inlineStr"/>
+      <c r="AC15" s="40" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="16" t="n"/>
-      <c r="B16" s="16" t="n"/>
+      <c r="A16" s="12" t="n"/>
+      <c r="B16" s="12" t="n"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>SA</t>
@@ -2475,79 +4377,79 @@
           <t>900003</t>
         </is>
       </c>
-      <c r="E16" s="31" t="inlineStr">
+      <c r="E16" s="13" t="inlineStr">
         <is>
           <t>T2B</t>
         </is>
       </c>
-      <c r="F16" s="32" t="n">
+      <c r="F16" s="41" t="n">
         <v>0.4132231404958678</v>
       </c>
-      <c r="G16" s="19" t="inlineStr">
+      <c r="G16" s="40" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="H16" s="33" t="n">
+      <c r="H16" s="14" t="n">
         <v>0.1763085399449036</v>
       </c>
-      <c r="I16" s="19" t="inlineStr"/>
-      <c r="J16" s="32" t="n">
+      <c r="I16" s="40" t="inlineStr"/>
+      <c r="J16" s="41" t="n">
         <v>0.3870967741935484</v>
       </c>
-      <c r="K16" s="19" t="inlineStr"/>
-      <c r="L16" s="33" t="n">
+      <c r="K16" s="40" t="inlineStr"/>
+      <c r="L16" s="14" t="n">
         <v>0.2580645161290323</v>
       </c>
-      <c r="M16" s="19" t="inlineStr"/>
-      <c r="N16" s="32" t="n">
+      <c r="M16" s="40" t="inlineStr"/>
+      <c r="N16" s="41" t="n">
         <v>0.4862385321100918</v>
       </c>
-      <c r="O16" s="19" t="inlineStr">
+      <c r="O16" s="40" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="P16" s="33" t="n">
+      <c r="P16" s="14" t="n">
         <v>0.1651376146788991</v>
       </c>
-      <c r="Q16" s="19" t="inlineStr"/>
-      <c r="R16" s="32" t="n">
+      <c r="Q16" s="40" t="inlineStr"/>
+      <c r="R16" s="41" t="n">
         <v>0.3670886075949367</v>
       </c>
-      <c r="S16" s="19" t="inlineStr">
+      <c r="S16" s="40" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="T16" s="33" t="n">
+      <c r="T16" s="14" t="n">
         <v>0.1582278481012658</v>
       </c>
-      <c r="U16" s="19" t="inlineStr"/>
-      <c r="V16" s="32" t="n">
+      <c r="U16" s="40" t="inlineStr"/>
+      <c r="V16" s="41" t="n">
         <v>0.4098360655737705</v>
       </c>
-      <c r="W16" s="19" t="inlineStr">
+      <c r="W16" s="40" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="X16" s="33" t="n">
+      <c r="X16" s="14" t="n">
         <v>0.2131147540983606</v>
       </c>
-      <c r="Y16" s="19" t="inlineStr"/>
-      <c r="Z16" s="32" t="n">
+      <c r="Y16" s="40" t="inlineStr"/>
+      <c r="Z16" s="41" t="n">
         <v>0.5</v>
       </c>
-      <c r="AA16" s="19" t="inlineStr"/>
-      <c r="AB16" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="19" t="inlineStr"/>
+      <c r="AA16" s="40" t="inlineStr"/>
+      <c r="AB16" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="40" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="21" t="n"/>
-      <c r="B17" s="21" t="n"/>
+      <c r="A17" s="19" t="n"/>
+      <c r="B17" s="19" t="n"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>SA</t>
@@ -2558,83 +4460,83 @@
           <t>mean</t>
         </is>
       </c>
-      <c r="E17" s="34" t="inlineStr">
+      <c r="E17" s="23" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
-      <c r="F17" s="35" t="n">
+      <c r="F17" s="42" t="n">
         <v>3.002754820936639</v>
       </c>
-      <c r="G17" s="36" t="inlineStr">
+      <c r="G17" s="43" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="H17" s="34" t="n">
+      <c r="H17" s="23" t="n">
         <v>2.347107438016529</v>
       </c>
-      <c r="I17" s="36" t="inlineStr"/>
-      <c r="J17" s="35" t="n">
+      <c r="I17" s="43" t="inlineStr"/>
+      <c r="J17" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="K17" s="36" t="inlineStr"/>
-      <c r="L17" s="34" t="n">
+      <c r="K17" s="43" t="inlineStr"/>
+      <c r="L17" s="23" t="n">
         <v>2.483870967741935</v>
       </c>
-      <c r="M17" s="36" t="inlineStr"/>
-      <c r="N17" s="35" t="n">
+      <c r="M17" s="43" t="inlineStr"/>
+      <c r="N17" s="42" t="n">
         <v>3.110091743119266</v>
       </c>
-      <c r="O17" s="36" t="inlineStr">
+      <c r="O17" s="43" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="P17" s="34" t="n">
+      <c r="P17" s="23" t="n">
         <v>2.385321100917431</v>
       </c>
-      <c r="Q17" s="36" t="inlineStr"/>
-      <c r="R17" s="35" t="n">
+      <c r="Q17" s="43" t="inlineStr"/>
+      <c r="R17" s="42" t="n">
         <v>2.911392405063291</v>
       </c>
-      <c r="S17" s="36" t="inlineStr">
+      <c r="S17" s="43" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="T17" s="34" t="n">
+      <c r="T17" s="23" t="n">
         <v>2.322784810126582</v>
       </c>
-      <c r="U17" s="36" t="inlineStr"/>
-      <c r="V17" s="35" t="n">
+      <c r="U17" s="43" t="inlineStr"/>
+      <c r="V17" s="42" t="n">
         <v>3.032786885245902</v>
       </c>
-      <c r="W17" s="36" t="inlineStr">
+      <c r="W17" s="43" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="X17" s="34" t="n">
+      <c r="X17" s="23" t="n">
         <v>2.311475409836066</v>
       </c>
-      <c r="Y17" s="36" t="inlineStr"/>
-      <c r="Z17" s="35" t="n">
+      <c r="Y17" s="43" t="inlineStr"/>
+      <c r="Z17" s="42" t="n">
         <v>3.25</v>
       </c>
-      <c r="AA17" s="36" t="inlineStr"/>
-      <c r="AB17" s="34" t="n">
+      <c r="AA17" s="43" t="inlineStr"/>
+      <c r="AB17" s="23" t="n">
         <v>1.75</v>
       </c>
-      <c r="AC17" s="36" t="inlineStr"/>
+      <c r="AC17" s="43" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="inlineStr">
+      <c r="A18" s="8" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="B18" s="12" t="inlineStr">
+      <c r="B18" s="9" t="inlineStr">
         <is>
           <t>Q3. OL</t>
         </is>
@@ -2649,63 +4551,63 @@
           <t>base</t>
         </is>
       </c>
-      <c r="E18" s="13" t="inlineStr">
+      <c r="E18" s="10" t="inlineStr">
         <is>
           <t>Base</t>
         </is>
       </c>
-      <c r="F18" s="14" t="n">
+      <c r="F18" s="38" t="n">
         <v>363</v>
       </c>
-      <c r="G18" s="15" t="inlineStr"/>
-      <c r="H18" s="13" t="n">
+      <c r="G18" s="11" t="inlineStr"/>
+      <c r="H18" s="10" t="n">
         <v>363</v>
       </c>
-      <c r="I18" s="15" t="inlineStr"/>
-      <c r="J18" s="14" t="n">
+      <c r="I18" s="11" t="inlineStr"/>
+      <c r="J18" s="38" t="n">
         <v>31</v>
       </c>
-      <c r="K18" s="15" t="inlineStr"/>
-      <c r="L18" s="13" t="n">
+      <c r="K18" s="11" t="inlineStr"/>
+      <c r="L18" s="10" t="n">
         <v>31</v>
       </c>
-      <c r="M18" s="15" t="inlineStr"/>
-      <c r="N18" s="14" t="n">
+      <c r="M18" s="11" t="inlineStr"/>
+      <c r="N18" s="38" t="n">
         <v>109</v>
       </c>
-      <c r="O18" s="15" t="inlineStr"/>
-      <c r="P18" s="13" t="n">
+      <c r="O18" s="11" t="inlineStr"/>
+      <c r="P18" s="10" t="n">
         <v>109</v>
       </c>
-      <c r="Q18" s="15" t="inlineStr"/>
-      <c r="R18" s="14" t="n">
+      <c r="Q18" s="11" t="inlineStr"/>
+      <c r="R18" s="38" t="n">
         <v>158</v>
       </c>
-      <c r="S18" s="15" t="inlineStr"/>
-      <c r="T18" s="13" t="n">
+      <c r="S18" s="11" t="inlineStr"/>
+      <c r="T18" s="10" t="n">
         <v>158</v>
       </c>
-      <c r="U18" s="15" t="inlineStr"/>
-      <c r="V18" s="14" t="n">
+      <c r="U18" s="11" t="inlineStr"/>
+      <c r="V18" s="38" t="n">
         <v>61</v>
       </c>
-      <c r="W18" s="15" t="inlineStr"/>
-      <c r="X18" s="13" t="n">
+      <c r="W18" s="11" t="inlineStr"/>
+      <c r="X18" s="10" t="n">
         <v>61</v>
       </c>
-      <c r="Y18" s="15" t="inlineStr"/>
-      <c r="Z18" s="14" t="n">
+      <c r="Y18" s="11" t="inlineStr"/>
+      <c r="Z18" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="AA18" s="15" t="inlineStr"/>
-      <c r="AB18" s="13" t="n">
+      <c r="AA18" s="11" t="inlineStr"/>
+      <c r="AB18" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="AC18" s="15" t="inlineStr"/>
+      <c r="AC18" s="11" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="16" t="n"/>
-      <c r="B19" s="16" t="n"/>
+      <c r="A19" s="12" t="n"/>
+      <c r="B19" s="12" t="n"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>SA</t>
@@ -2716,67 +4618,67 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E19" s="17" t="inlineStr">
+      <c r="E19" s="16" t="inlineStr">
         <is>
           <t>Totally disagree</t>
         </is>
       </c>
-      <c r="F19" s="18" t="n">
+      <c r="F19" s="39" t="n">
         <v>0.1680440771349862</v>
       </c>
-      <c r="G19" s="19" t="inlineStr"/>
-      <c r="H19" s="20" t="n">
+      <c r="G19" s="40" t="inlineStr"/>
+      <c r="H19" s="17" t="n">
         <v>0.1955922865013774</v>
       </c>
-      <c r="I19" s="19" t="inlineStr"/>
-      <c r="J19" s="18" t="n">
+      <c r="I19" s="40" t="inlineStr"/>
+      <c r="J19" s="39" t="n">
         <v>0.03225806451612903</v>
       </c>
-      <c r="K19" s="19" t="inlineStr"/>
-      <c r="L19" s="20" t="n">
+      <c r="K19" s="40" t="inlineStr"/>
+      <c r="L19" s="17" t="n">
         <v>0.2258064516129032</v>
       </c>
-      <c r="M19" s="19" t="inlineStr">
+      <c r="M19" s="40" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="N19" s="18" t="n">
+      <c r="N19" s="39" t="n">
         <v>0.2018348623853211</v>
       </c>
-      <c r="O19" s="19" t="inlineStr"/>
-      <c r="P19" s="20" t="n">
+      <c r="O19" s="40" t="inlineStr"/>
+      <c r="P19" s="17" t="n">
         <v>0.2201834862385321</v>
       </c>
-      <c r="Q19" s="19" t="inlineStr"/>
-      <c r="R19" s="18" t="n">
+      <c r="Q19" s="40" t="inlineStr"/>
+      <c r="R19" s="39" t="n">
         <v>0.1518987341772152</v>
       </c>
-      <c r="S19" s="19" t="inlineStr"/>
-      <c r="T19" s="20" t="n">
+      <c r="S19" s="40" t="inlineStr"/>
+      <c r="T19" s="17" t="n">
         <v>0.2025316455696203</v>
       </c>
-      <c r="U19" s="19" t="inlineStr"/>
-      <c r="V19" s="18" t="n">
+      <c r="U19" s="40" t="inlineStr"/>
+      <c r="V19" s="39" t="n">
         <v>0.2131147540983606</v>
       </c>
-      <c r="W19" s="19" t="inlineStr"/>
-      <c r="X19" s="20" t="n">
+      <c r="W19" s="40" t="inlineStr"/>
+      <c r="X19" s="17" t="n">
         <v>0.1311475409836066</v>
       </c>
-      <c r="Y19" s="19" t="inlineStr"/>
-      <c r="Z19" s="18" t="n">
+      <c r="Y19" s="40" t="inlineStr"/>
+      <c r="Z19" s="39" t="n">
         <v>0.25</v>
       </c>
-      <c r="AA19" s="19" t="inlineStr"/>
-      <c r="AB19" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="19" t="inlineStr"/>
+      <c r="AA19" s="40" t="inlineStr"/>
+      <c r="AB19" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="40" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="16" t="n"/>
-      <c r="B20" s="16" t="n"/>
+      <c r="A20" s="12" t="n"/>
+      <c r="B20" s="12" t="n"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>SA</t>
@@ -2787,67 +4689,67 @@
           <t>2</t>
         </is>
       </c>
-      <c r="E20" s="17" t="inlineStr">
+      <c r="E20" s="16" t="inlineStr">
         <is>
           <t>Disagree</t>
         </is>
       </c>
-      <c r="F20" s="18" t="n">
+      <c r="F20" s="39" t="n">
         <v>0.2424242424242424</v>
       </c>
-      <c r="G20" s="19" t="inlineStr"/>
-      <c r="H20" s="20" t="n">
+      <c r="G20" s="40" t="inlineStr"/>
+      <c r="H20" s="17" t="n">
         <v>0.1900826446280992</v>
       </c>
-      <c r="I20" s="19" t="inlineStr"/>
-      <c r="J20" s="18" t="n">
+      <c r="I20" s="40" t="inlineStr"/>
+      <c r="J20" s="39" t="n">
         <v>0.2580645161290323</v>
       </c>
-      <c r="K20" s="19" t="inlineStr"/>
-      <c r="L20" s="20" t="n">
+      <c r="K20" s="40" t="inlineStr"/>
+      <c r="L20" s="17" t="n">
         <v>0.2258064516129032</v>
       </c>
-      <c r="M20" s="19" t="inlineStr"/>
-      <c r="N20" s="18" t="n">
+      <c r="M20" s="40" t="inlineStr"/>
+      <c r="N20" s="39" t="n">
         <v>0.2477064220183486</v>
       </c>
-      <c r="O20" s="19" t="inlineStr"/>
-      <c r="P20" s="20" t="n">
+      <c r="O20" s="40" t="inlineStr"/>
+      <c r="P20" s="17" t="n">
         <v>0.1926605504587156</v>
       </c>
-      <c r="Q20" s="19" t="inlineStr"/>
-      <c r="R20" s="18" t="n">
+      <c r="Q20" s="40" t="inlineStr"/>
+      <c r="R20" s="39" t="n">
         <v>0.2468354430379747</v>
       </c>
-      <c r="S20" s="19" t="inlineStr">
+      <c r="S20" s="40" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="T20" s="20" t="n">
+      <c r="T20" s="17" t="n">
         <v>0.1518987341772152</v>
       </c>
-      <c r="U20" s="19" t="inlineStr"/>
-      <c r="V20" s="18" t="n">
+      <c r="U20" s="40" t="inlineStr"/>
+      <c r="V20" s="39" t="n">
         <v>0.1967213114754098</v>
       </c>
-      <c r="W20" s="19" t="inlineStr"/>
-      <c r="X20" s="20" t="n">
+      <c r="W20" s="40" t="inlineStr"/>
+      <c r="X20" s="17" t="n">
         <v>0.2622950819672131</v>
       </c>
-      <c r="Y20" s="19" t="inlineStr"/>
-      <c r="Z20" s="18" t="n">
+      <c r="Y20" s="40" t="inlineStr"/>
+      <c r="Z20" s="39" t="n">
         <v>0.5</v>
       </c>
-      <c r="AA20" s="19" t="inlineStr"/>
-      <c r="AB20" s="20" t="n">
+      <c r="AA20" s="40" t="inlineStr"/>
+      <c r="AB20" s="17" t="n">
         <v>0.25</v>
       </c>
-      <c r="AC20" s="19" t="inlineStr"/>
+      <c r="AC20" s="40" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="16" t="n"/>
-      <c r="B21" s="16" t="n"/>
+      <c r="A21" s="12" t="n"/>
+      <c r="B21" s="12" t="n"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>SA</t>
@@ -2858,63 +4760,63 @@
           <t>3</t>
         </is>
       </c>
-      <c r="E21" s="17" t="inlineStr">
+      <c r="E21" s="16" t="inlineStr">
         <is>
           <t>Neutral</t>
         </is>
       </c>
-      <c r="F21" s="18" t="n">
+      <c r="F21" s="39" t="n">
         <v>0.2258953168044077</v>
       </c>
-      <c r="G21" s="19" t="inlineStr"/>
-      <c r="H21" s="20" t="n">
+      <c r="G21" s="40" t="inlineStr"/>
+      <c r="H21" s="17" t="n">
         <v>0.1818181818181818</v>
       </c>
-      <c r="I21" s="19" t="inlineStr"/>
-      <c r="J21" s="18" t="n">
+      <c r="I21" s="40" t="inlineStr"/>
+      <c r="J21" s="39" t="n">
         <v>0.2903225806451613</v>
       </c>
-      <c r="K21" s="19" t="inlineStr"/>
-      <c r="L21" s="20" t="n">
+      <c r="K21" s="40" t="inlineStr"/>
+      <c r="L21" s="17" t="n">
         <v>0.1612903225806452</v>
       </c>
-      <c r="M21" s="19" t="inlineStr"/>
-      <c r="N21" s="18" t="n">
+      <c r="M21" s="40" t="inlineStr"/>
+      <c r="N21" s="39" t="n">
         <v>0.2018348623853211</v>
       </c>
-      <c r="O21" s="19" t="inlineStr"/>
-      <c r="P21" s="20" t="n">
+      <c r="O21" s="40" t="inlineStr"/>
+      <c r="P21" s="17" t="n">
         <v>0.1651376146788991</v>
       </c>
-      <c r="Q21" s="19" t="inlineStr"/>
-      <c r="R21" s="18" t="n">
+      <c r="Q21" s="40" t="inlineStr"/>
+      <c r="R21" s="39" t="n">
         <v>0.2341772151898734</v>
       </c>
-      <c r="S21" s="19" t="inlineStr"/>
-      <c r="T21" s="20" t="n">
+      <c r="S21" s="40" t="inlineStr"/>
+      <c r="T21" s="17" t="n">
         <v>0.1645569620253164</v>
       </c>
-      <c r="U21" s="19" t="inlineStr"/>
-      <c r="V21" s="18" t="n">
+      <c r="U21" s="40" t="inlineStr"/>
+      <c r="V21" s="39" t="n">
         <v>0.2295081967213115</v>
       </c>
-      <c r="W21" s="19" t="inlineStr"/>
-      <c r="X21" s="20" t="n">
+      <c r="W21" s="40" t="inlineStr"/>
+      <c r="X21" s="17" t="n">
         <v>0.2786885245901639</v>
       </c>
-      <c r="Y21" s="19" t="inlineStr"/>
-      <c r="Z21" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="19" t="inlineStr"/>
-      <c r="AB21" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="19" t="inlineStr"/>
+      <c r="Y21" s="40" t="inlineStr"/>
+      <c r="Z21" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="40" t="inlineStr"/>
+      <c r="AB21" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="40" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="16" t="n"/>
-      <c r="B22" s="16" t="n"/>
+      <c r="A22" s="12" t="n"/>
+      <c r="B22" s="12" t="n"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>SA</t>
@@ -2925,63 +4827,63 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E22" s="17" t="inlineStr">
+      <c r="E22" s="16" t="inlineStr">
         <is>
           <t>Agree</t>
         </is>
       </c>
-      <c r="F22" s="18" t="n">
+      <c r="F22" s="39" t="n">
         <v>0.1735537190082645</v>
       </c>
-      <c r="G22" s="19" t="inlineStr"/>
-      <c r="H22" s="20" t="n">
+      <c r="G22" s="40" t="inlineStr"/>
+      <c r="H22" s="17" t="n">
         <v>0.209366391184573</v>
       </c>
-      <c r="I22" s="19" t="inlineStr"/>
-      <c r="J22" s="18" t="n">
+      <c r="I22" s="40" t="inlineStr"/>
+      <c r="J22" s="39" t="n">
         <v>0.1935483870967742</v>
       </c>
-      <c r="K22" s="19" t="inlineStr"/>
-      <c r="L22" s="20" t="n">
+      <c r="K22" s="40" t="inlineStr"/>
+      <c r="L22" s="17" t="n">
         <v>0.1290322580645161</v>
       </c>
-      <c r="M22" s="19" t="inlineStr"/>
-      <c r="N22" s="18" t="n">
+      <c r="M22" s="40" t="inlineStr"/>
+      <c r="N22" s="39" t="n">
         <v>0.1651376146788991</v>
       </c>
-      <c r="O22" s="19" t="inlineStr"/>
-      <c r="P22" s="20" t="n">
+      <c r="O22" s="40" t="inlineStr"/>
+      <c r="P22" s="17" t="n">
         <v>0.1926605504587156</v>
       </c>
-      <c r="Q22" s="19" t="inlineStr"/>
-      <c r="R22" s="18" t="n">
+      <c r="Q22" s="40" t="inlineStr"/>
+      <c r="R22" s="39" t="n">
         <v>0.1962025316455696</v>
       </c>
-      <c r="S22" s="19" t="inlineStr"/>
-      <c r="T22" s="20" t="n">
+      <c r="S22" s="40" t="inlineStr"/>
+      <c r="T22" s="17" t="n">
         <v>0.2594936708860759</v>
       </c>
-      <c r="U22" s="19" t="inlineStr"/>
-      <c r="V22" s="18" t="n">
+      <c r="U22" s="40" t="inlineStr"/>
+      <c r="V22" s="39" t="n">
         <v>0.1311475409836066</v>
       </c>
-      <c r="W22" s="19" t="inlineStr"/>
-      <c r="X22" s="20" t="n">
+      <c r="W22" s="40" t="inlineStr"/>
+      <c r="X22" s="17" t="n">
         <v>0.1311475409836066</v>
       </c>
-      <c r="Y22" s="19" t="inlineStr"/>
-      <c r="Z22" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="19" t="inlineStr"/>
-      <c r="AB22" s="20" t="n">
+      <c r="Y22" s="40" t="inlineStr"/>
+      <c r="Z22" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="40" t="inlineStr"/>
+      <c r="AB22" s="17" t="n">
         <v>0.5</v>
       </c>
-      <c r="AC22" s="19" t="inlineStr"/>
+      <c r="AC22" s="40" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="16" t="n"/>
-      <c r="B23" s="16" t="n"/>
+      <c r="A23" s="12" t="n"/>
+      <c r="B23" s="12" t="n"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>SA</t>
@@ -2992,63 +4894,63 @@
           <t>5</t>
         </is>
       </c>
-      <c r="E23" s="17" t="inlineStr">
+      <c r="E23" s="16" t="inlineStr">
         <is>
           <t>Totally agree</t>
         </is>
       </c>
-      <c r="F23" s="18" t="n">
+      <c r="F23" s="39" t="n">
         <v>0.1900826446280992</v>
       </c>
-      <c r="G23" s="19" t="inlineStr"/>
-      <c r="H23" s="20" t="n">
+      <c r="G23" s="40" t="inlineStr"/>
+      <c r="H23" s="17" t="n">
         <v>0.2231404958677686</v>
       </c>
-      <c r="I23" s="19" t="inlineStr"/>
-      <c r="J23" s="18" t="n">
+      <c r="I23" s="40" t="inlineStr"/>
+      <c r="J23" s="39" t="n">
         <v>0.2258064516129032</v>
       </c>
-      <c r="K23" s="19" t="inlineStr"/>
-      <c r="L23" s="20" t="n">
+      <c r="K23" s="40" t="inlineStr"/>
+      <c r="L23" s="17" t="n">
         <v>0.2580645161290323</v>
       </c>
-      <c r="M23" s="19" t="inlineStr"/>
-      <c r="N23" s="18" t="n">
+      <c r="M23" s="40" t="inlineStr"/>
+      <c r="N23" s="39" t="n">
         <v>0.1834862385321101</v>
       </c>
-      <c r="O23" s="19" t="inlineStr"/>
-      <c r="P23" s="20" t="n">
+      <c r="O23" s="40" t="inlineStr"/>
+      <c r="P23" s="17" t="n">
         <v>0.2293577981651376</v>
       </c>
-      <c r="Q23" s="19" t="inlineStr"/>
-      <c r="R23" s="18" t="n">
+      <c r="Q23" s="40" t="inlineStr"/>
+      <c r="R23" s="39" t="n">
         <v>0.1708860759493671</v>
       </c>
-      <c r="S23" s="19" t="inlineStr"/>
-      <c r="T23" s="20" t="n">
+      <c r="S23" s="40" t="inlineStr"/>
+      <c r="T23" s="17" t="n">
         <v>0.2215189873417721</v>
       </c>
-      <c r="U23" s="19" t="inlineStr"/>
-      <c r="V23" s="18" t="n">
+      <c r="U23" s="40" t="inlineStr"/>
+      <c r="V23" s="39" t="n">
         <v>0.2295081967213115</v>
       </c>
-      <c r="W23" s="19" t="inlineStr"/>
-      <c r="X23" s="20" t="n">
+      <c r="W23" s="40" t="inlineStr"/>
+      <c r="X23" s="17" t="n">
         <v>0.1967213114754098</v>
       </c>
-      <c r="Y23" s="19" t="inlineStr"/>
-      <c r="Z23" s="18" t="n">
+      <c r="Y23" s="40" t="inlineStr"/>
+      <c r="Z23" s="39" t="n">
         <v>0.25</v>
       </c>
-      <c r="AA23" s="19" t="inlineStr"/>
-      <c r="AB23" s="20" t="n">
+      <c r="AA23" s="40" t="inlineStr"/>
+      <c r="AB23" s="17" t="n">
         <v>0.25</v>
       </c>
-      <c r="AC23" s="19" t="inlineStr"/>
+      <c r="AC23" s="40" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="16" t="n"/>
-      <c r="B24" s="16" t="n"/>
+      <c r="A24" s="12" t="n"/>
+      <c r="B24" s="12" t="n"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>SA</t>
@@ -3059,63 +4961,63 @@
           <t>900001</t>
         </is>
       </c>
-      <c r="E24" s="31" t="inlineStr">
+      <c r="E24" s="13" t="inlineStr">
         <is>
           <t>B2B</t>
         </is>
       </c>
-      <c r="F24" s="32" t="n">
+      <c r="F24" s="41" t="n">
         <v>0.4104683195592286</v>
       </c>
-      <c r="G24" s="19" t="inlineStr"/>
-      <c r="H24" s="33" t="n">
+      <c r="G24" s="40" t="inlineStr"/>
+      <c r="H24" s="14" t="n">
         <v>0.3856749311294766</v>
       </c>
-      <c r="I24" s="19" t="inlineStr"/>
-      <c r="J24" s="32" t="n">
+      <c r="I24" s="40" t="inlineStr"/>
+      <c r="J24" s="41" t="n">
         <v>0.2903225806451613</v>
       </c>
-      <c r="K24" s="19" t="inlineStr"/>
-      <c r="L24" s="33" t="n">
+      <c r="K24" s="40" t="inlineStr"/>
+      <c r="L24" s="14" t="n">
         <v>0.4516129032258064</v>
       </c>
-      <c r="M24" s="19" t="inlineStr"/>
-      <c r="N24" s="32" t="n">
+      <c r="M24" s="40" t="inlineStr"/>
+      <c r="N24" s="41" t="n">
         <v>0.4495412844036697</v>
       </c>
-      <c r="O24" s="19" t="inlineStr"/>
-      <c r="P24" s="33" t="n">
+      <c r="O24" s="40" t="inlineStr"/>
+      <c r="P24" s="14" t="n">
         <v>0.4128440366972477</v>
       </c>
-      <c r="Q24" s="19" t="inlineStr"/>
-      <c r="R24" s="32" t="n">
+      <c r="Q24" s="40" t="inlineStr"/>
+      <c r="R24" s="41" t="n">
         <v>0.3987341772151899</v>
       </c>
-      <c r="S24" s="19" t="inlineStr"/>
-      <c r="T24" s="33" t="n">
+      <c r="S24" s="40" t="inlineStr"/>
+      <c r="T24" s="14" t="n">
         <v>0.3544303797468354</v>
       </c>
-      <c r="U24" s="19" t="inlineStr"/>
-      <c r="V24" s="32" t="n">
+      <c r="U24" s="40" t="inlineStr"/>
+      <c r="V24" s="41" t="n">
         <v>0.4098360655737705</v>
       </c>
-      <c r="W24" s="19" t="inlineStr"/>
-      <c r="X24" s="33" t="n">
+      <c r="W24" s="40" t="inlineStr"/>
+      <c r="X24" s="14" t="n">
         <v>0.3934426229508197</v>
       </c>
-      <c r="Y24" s="19" t="inlineStr"/>
-      <c r="Z24" s="32" t="n">
+      <c r="Y24" s="40" t="inlineStr"/>
+      <c r="Z24" s="41" t="n">
         <v>0.75</v>
       </c>
-      <c r="AA24" s="19" t="inlineStr"/>
-      <c r="AB24" s="33" t="n">
+      <c r="AA24" s="40" t="inlineStr"/>
+      <c r="AB24" s="14" t="n">
         <v>0.25</v>
       </c>
-      <c r="AC24" s="19" t="inlineStr"/>
+      <c r="AC24" s="40" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="16" t="n"/>
-      <c r="B25" s="16" t="n"/>
+      <c r="A25" s="12" t="n"/>
+      <c r="B25" s="12" t="n"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>SA</t>
@@ -3126,63 +5028,63 @@
           <t>900002</t>
         </is>
       </c>
-      <c r="E25" s="31" t="inlineStr">
+      <c r="E25" s="13" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="F25" s="32" t="n">
+      <c r="F25" s="41" t="n">
         <v>0.2258953168044077</v>
       </c>
-      <c r="G25" s="19" t="inlineStr"/>
-      <c r="H25" s="33" t="n">
+      <c r="G25" s="40" t="inlineStr"/>
+      <c r="H25" s="14" t="n">
         <v>0.1818181818181818</v>
       </c>
-      <c r="I25" s="19" t="inlineStr"/>
-      <c r="J25" s="32" t="n">
+      <c r="I25" s="40" t="inlineStr"/>
+      <c r="J25" s="41" t="n">
         <v>0.2903225806451613</v>
       </c>
-      <c r="K25" s="19" t="inlineStr"/>
-      <c r="L25" s="33" t="n">
+      <c r="K25" s="40" t="inlineStr"/>
+      <c r="L25" s="14" t="n">
         <v>0.1612903225806452</v>
       </c>
-      <c r="M25" s="19" t="inlineStr"/>
-      <c r="N25" s="32" t="n">
+      <c r="M25" s="40" t="inlineStr"/>
+      <c r="N25" s="41" t="n">
         <v>0.2018348623853211</v>
       </c>
-      <c r="O25" s="19" t="inlineStr"/>
-      <c r="P25" s="33" t="n">
+      <c r="O25" s="40" t="inlineStr"/>
+      <c r="P25" s="14" t="n">
         <v>0.1651376146788991</v>
       </c>
-      <c r="Q25" s="19" t="inlineStr"/>
-      <c r="R25" s="32" t="n">
+      <c r="Q25" s="40" t="inlineStr"/>
+      <c r="R25" s="41" t="n">
         <v>0.2341772151898734</v>
       </c>
-      <c r="S25" s="19" t="inlineStr"/>
-      <c r="T25" s="33" t="n">
+      <c r="S25" s="40" t="inlineStr"/>
+      <c r="T25" s="14" t="n">
         <v>0.1645569620253164</v>
       </c>
-      <c r="U25" s="19" t="inlineStr"/>
-      <c r="V25" s="32" t="n">
+      <c r="U25" s="40" t="inlineStr"/>
+      <c r="V25" s="41" t="n">
         <v>0.2295081967213115</v>
       </c>
-      <c r="W25" s="19" t="inlineStr"/>
-      <c r="X25" s="33" t="n">
+      <c r="W25" s="40" t="inlineStr"/>
+      <c r="X25" s="14" t="n">
         <v>0.2786885245901639</v>
       </c>
-      <c r="Y25" s="19" t="inlineStr"/>
-      <c r="Z25" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="19" t="inlineStr"/>
-      <c r="AB25" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="19" t="inlineStr"/>
+      <c r="Y25" s="40" t="inlineStr"/>
+      <c r="Z25" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="40" t="inlineStr"/>
+      <c r="AB25" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="40" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="16" t="n"/>
-      <c r="B26" s="16" t="n"/>
+      <c r="A26" s="12" t="n"/>
+      <c r="B26" s="12" t="n"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>SA</t>
@@ -3193,71 +5095,71 @@
           <t>900003</t>
         </is>
       </c>
-      <c r="E26" s="31" t="inlineStr">
+      <c r="E26" s="13" t="inlineStr">
         <is>
           <t>T2B</t>
         </is>
       </c>
-      <c r="F26" s="32" t="n">
+      <c r="F26" s="41" t="n">
         <v>0.3636363636363636</v>
       </c>
-      <c r="G26" s="19" t="inlineStr"/>
-      <c r="H26" s="33" t="n">
+      <c r="G26" s="40" t="inlineStr"/>
+      <c r="H26" s="14" t="n">
         <v>0.4325068870523416</v>
       </c>
-      <c r="I26" s="19" t="inlineStr">
+      <c r="I26" s="40" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="J26" s="32" t="n">
+      <c r="J26" s="41" t="n">
         <v>0.4193548387096774</v>
       </c>
-      <c r="K26" s="19" t="inlineStr"/>
-      <c r="L26" s="33" t="n">
+      <c r="K26" s="40" t="inlineStr"/>
+      <c r="L26" s="14" t="n">
         <v>0.3870967741935484</v>
       </c>
-      <c r="M26" s="19" t="inlineStr"/>
-      <c r="N26" s="32" t="n">
+      <c r="M26" s="40" t="inlineStr"/>
+      <c r="N26" s="41" t="n">
         <v>0.3486238532110092</v>
       </c>
-      <c r="O26" s="19" t="inlineStr"/>
-      <c r="P26" s="33" t="n">
+      <c r="O26" s="40" t="inlineStr"/>
+      <c r="P26" s="14" t="n">
         <v>0.4220183486238532</v>
       </c>
-      <c r="Q26" s="19" t="inlineStr"/>
-      <c r="R26" s="32" t="n">
+      <c r="Q26" s="40" t="inlineStr"/>
+      <c r="R26" s="41" t="n">
         <v>0.3670886075949367</v>
       </c>
-      <c r="S26" s="19" t="inlineStr"/>
-      <c r="T26" s="33" t="n">
+      <c r="S26" s="40" t="inlineStr"/>
+      <c r="T26" s="14" t="n">
         <v>0.4810126582278481</v>
       </c>
-      <c r="U26" s="19" t="inlineStr">
+      <c r="U26" s="40" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="V26" s="32" t="n">
+      <c r="V26" s="41" t="n">
         <v>0.360655737704918</v>
       </c>
-      <c r="W26" s="19" t="inlineStr"/>
-      <c r="X26" s="33" t="n">
+      <c r="W26" s="40" t="inlineStr"/>
+      <c r="X26" s="14" t="n">
         <v>0.3278688524590164</v>
       </c>
-      <c r="Y26" s="19" t="inlineStr"/>
-      <c r="Z26" s="32" t="n">
+      <c r="Y26" s="40" t="inlineStr"/>
+      <c r="Z26" s="41" t="n">
         <v>0.25</v>
       </c>
-      <c r="AA26" s="19" t="inlineStr"/>
-      <c r="AB26" s="33" t="n">
+      <c r="AA26" s="40" t="inlineStr"/>
+      <c r="AB26" s="14" t="n">
         <v>0.75</v>
       </c>
-      <c r="AC26" s="19" t="inlineStr"/>
+      <c r="AC26" s="40" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="21" t="n"/>
-      <c r="B27" s="21" t="n"/>
+      <c r="A27" s="19" t="n"/>
+      <c r="B27" s="19" t="n"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>SA</t>
@@ -3268,59 +5170,59 @@
           <t>mean</t>
         </is>
       </c>
-      <c r="E27" s="34" t="inlineStr">
+      <c r="E27" s="23" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
-      <c r="F27" s="35" t="n">
+      <c r="F27" s="42" t="n">
         <v>2.975206611570248</v>
       </c>
-      <c r="G27" s="36" t="inlineStr"/>
-      <c r="H27" s="34" t="n">
+      <c r="G27" s="43" t="inlineStr"/>
+      <c r="H27" s="23" t="n">
         <v>3.074380165289256</v>
       </c>
-      <c r="I27" s="36" t="inlineStr"/>
-      <c r="J27" s="35" t="n">
+      <c r="I27" s="43" t="inlineStr"/>
+      <c r="J27" s="42" t="n">
         <v>3.32258064516129</v>
       </c>
-      <c r="K27" s="36" t="inlineStr"/>
-      <c r="L27" s="34" t="n">
+      <c r="K27" s="43" t="inlineStr"/>
+      <c r="L27" s="23" t="n">
         <v>2.967741935483871</v>
       </c>
-      <c r="M27" s="36" t="inlineStr"/>
-      <c r="N27" s="35" t="n">
+      <c r="M27" s="43" t="inlineStr"/>
+      <c r="N27" s="42" t="n">
         <v>2.880733944954128</v>
       </c>
-      <c r="O27" s="36" t="inlineStr"/>
-      <c r="P27" s="34" t="n">
+      <c r="O27" s="43" t="inlineStr"/>
+      <c r="P27" s="23" t="n">
         <v>3.018348623853211</v>
       </c>
-      <c r="Q27" s="36" t="inlineStr"/>
-      <c r="R27" s="35" t="n">
+      <c r="Q27" s="43" t="inlineStr"/>
+      <c r="R27" s="42" t="n">
         <v>2.987341772151899</v>
       </c>
-      <c r="S27" s="36" t="inlineStr"/>
-      <c r="T27" s="34" t="n">
+      <c r="S27" s="43" t="inlineStr"/>
+      <c r="T27" s="23" t="n">
         <v>3.145569620253164</v>
       </c>
-      <c r="U27" s="36" t="inlineStr"/>
-      <c r="V27" s="35" t="n">
+      <c r="U27" s="43" t="inlineStr"/>
+      <c r="V27" s="42" t="n">
         <v>2.967213114754098</v>
       </c>
-      <c r="W27" s="36" t="inlineStr"/>
-      <c r="X27" s="34" t="n">
+      <c r="W27" s="43" t="inlineStr"/>
+      <c r="X27" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="Y27" s="36" t="inlineStr"/>
-      <c r="Z27" s="35" t="n">
+      <c r="Y27" s="43" t="inlineStr"/>
+      <c r="Z27" s="42" t="n">
         <v>2.5</v>
       </c>
-      <c r="AA27" s="36" t="inlineStr"/>
-      <c r="AB27" s="34" t="n">
+      <c r="AA27" s="43" t="inlineStr"/>
+      <c r="AB27" s="23" t="n">
         <v>3.75</v>
       </c>
-      <c r="AC27" s="36" t="inlineStr"/>
+      <c r="AC27" s="43" t="inlineStr"/>
     </row>
     <row r="28"/>
   </sheetData>
